--- a/tests/tests8/ЛМ 1.0.xlsx
+++ b/tests/tests8/ЛМ 1.0.xlsx
@@ -582,7 +582,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.005274999999983265</v>
+        <v>0.00539489999999887</v>
       </c>
       <c r="U2">
         <v>29</v>
@@ -650,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="T3">
-        <v>0.004861000000005333</v>
+        <v>0.005007400000010875</v>
       </c>
       <c r="U3">
         <v>27</v>
@@ -718,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.00594499999999698</v>
+        <v>0.005099299999997697</v>
       </c>
       <c r="U4">
         <v>23</v>
@@ -786,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.005328700000006847</v>
+        <v>0.00545930000001249</v>
       </c>
       <c r="U5">
         <v>29</v>
@@ -854,7 +854,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004878899999994246</v>
+        <v>0.004707400000000916</v>
       </c>
       <c r="U6">
         <v>23</v>
@@ -922,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.005033400000002075</v>
+        <v>0.005102300000004334</v>
       </c>
       <c r="U7">
         <v>24</v>
@@ -990,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.003728700000010576</v>
+        <v>0.005287599999988402</v>
       </c>
       <c r="U8">
         <v>19</v>
@@ -1058,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.003849200000047404</v>
+        <v>0.003877000000002795</v>
       </c>
       <c r="U9">
         <v>20</v>
@@ -1126,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.007010899999954745</v>
+        <v>0.005435499999990157</v>
       </c>
       <c r="U10">
         <v>29</v>
@@ -1194,7 +1194,7 @@
         <v>23</v>
       </c>
       <c r="T11">
-        <v>0.002705699999978606</v>
+        <v>0.003630900000004544</v>
       </c>
       <c r="U11">
         <v>14</v>
@@ -1262,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.004987399999947684</v>
+        <v>0.004615700000002221</v>
       </c>
       <c r="U12">
         <v>24</v>
@@ -1330,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.004159500000014305</v>
+        <v>0.004343499999990286</v>
       </c>
       <c r="U13">
         <v>23</v>
@@ -1398,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.004622900000015306</v>
+        <v>0.005706500000002279</v>
       </c>
       <c r="U14">
         <v>24</v>
@@ -1466,7 +1466,7 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.006551300000012361</v>
+        <v>0.005425599999995256</v>
       </c>
       <c r="U15">
         <v>29</v>
@@ -1534,7 +1534,7 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.005373200000008183</v>
+        <v>0.005738500000006752</v>
       </c>
       <c r="U16">
         <v>29</v>
@@ -1602,7 +1602,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.005387299999995321</v>
+        <v>0.006013800000005176</v>
       </c>
       <c r="U17">
         <v>29</v>
@@ -1670,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.005056599999988975</v>
+        <v>0.005168600000004631</v>
       </c>
       <c r="U18">
         <v>24</v>
@@ -1738,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.004391199999986384</v>
+        <v>0.004529900000008524</v>
       </c>
       <c r="U19">
         <v>24</v>
@@ -1806,7 +1806,7 @@
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.005356099999971775</v>
+        <v>0.005433000000010679</v>
       </c>
       <c r="U20">
         <v>29</v>
@@ -1874,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.003787399999964691</v>
+        <v>0.004622800000007032</v>
       </c>
       <c r="U21">
         <v>21</v>
@@ -1942,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.005454100000008566</v>
+        <v>0.007494899999997529</v>
       </c>
       <c r="U22">
         <v>30</v>
@@ -2010,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="T23">
-        <v>0.004047200000002249</v>
+        <v>0.003340999999991823</v>
       </c>
       <c r="U23">
         <v>17</v>
@@ -2078,7 +2078,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.004255699999987428</v>
+        <v>0.004668499999993969</v>
       </c>
       <c r="U24">
         <v>24</v>
@@ -2146,7 +2146,7 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.005449200000043675</v>
+        <v>0.005693300000004342</v>
       </c>
       <c r="U25">
         <v>29</v>
@@ -2214,7 +2214,7 @@
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.003554199999996399</v>
+        <v>0.004695300000008729</v>
       </c>
       <c r="U26">
         <v>18</v>
@@ -2282,7 +2282,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.003231999999968593</v>
+        <v>0.003467000000000553</v>
       </c>
       <c r="U27">
         <v>16</v>
@@ -2350,7 +2350,7 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.005522900000016762</v>
+        <v>0.00504399999999805</v>
       </c>
       <c r="U28">
         <v>27</v>
@@ -2418,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.005028400000014699</v>
+        <v>0.006018800000006763</v>
       </c>
       <c r="U29">
         <v>28</v>
@@ -2486,7 +2486,7 @@
         <v>23</v>
       </c>
       <c r="T30">
-        <v>0.005761399999983041</v>
+        <v>0.00641199999999742</v>
       </c>
       <c r="U30">
         <v>31</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.006169200000044839</v>
+        <v>0.006193499999994856</v>
       </c>
       <c r="U31">
         <v>31</v>
@@ -2622,7 +2622,7 @@
         <v>23</v>
       </c>
       <c r="T32">
-        <v>0.005158199999982571</v>
+        <v>0.005452800000000479</v>
       </c>
       <c r="U32">
         <v>29</v>
@@ -2690,7 +2690,7 @@
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.004924999999957436</v>
+        <v>0.005432800000008342</v>
       </c>
       <c r="U33">
         <v>27</v>
@@ -2758,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.003313300000002073</v>
+        <v>0.003994600000012838</v>
       </c>
       <c r="U34">
         <v>16</v>
@@ -2826,7 +2826,7 @@
         <v>23</v>
       </c>
       <c r="T35">
-        <v>0.004246399999999539</v>
+        <v>0.004523800000001188</v>
       </c>
       <c r="U35">
         <v>24</v>
@@ -2894,7 +2894,7 @@
         <v>23</v>
       </c>
       <c r="T36">
-        <v>0.003157799999996769</v>
+        <v>0.002753400000003126</v>
       </c>
       <c r="U36">
         <v>14</v>
@@ -2962,7 +2962,7 @@
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.004979100000014114</v>
+        <v>0.005311199999994187</v>
       </c>
       <c r="U37">
         <v>27</v>
@@ -3030,7 +3030,7 @@
         <v>24</v>
       </c>
       <c r="T38">
-        <v>0.005664200000012443</v>
+        <v>0.006001799999992841</v>
       </c>
       <c r="U38">
         <v>31</v>
@@ -3098,7 +3098,7 @@
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.003813900000011472</v>
+        <v>0.004099800000005871</v>
       </c>
       <c r="U39">
         <v>20</v>
@@ -3166,7 +3166,7 @@
         <v>23</v>
       </c>
       <c r="T40">
-        <v>0.004751600000020062</v>
+        <v>0.005687199999997006</v>
       </c>
       <c r="U40">
         <v>27</v>
@@ -3234,7 +3234,7 @@
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.006199700000024677</v>
+        <v>0.005387400000003595</v>
       </c>
       <c r="U41">
         <v>29</v>
@@ -3302,7 +3302,7 @@
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.003955899999994017</v>
+        <v>0.004357699999999909</v>
       </c>
       <c r="U42">
         <v>22</v>
@@ -3370,7 +3370,7 @@
         <v>23</v>
       </c>
       <c r="T43">
-        <v>0.0042966999999976</v>
+        <v>0.004871399999998971</v>
       </c>
       <c r="U43">
         <v>23</v>
@@ -3438,7 +3438,7 @@
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.005802500000015698</v>
+        <v>0.005130199999996421</v>
       </c>
       <c r="U44">
         <v>27</v>
@@ -3506,7 +3506,7 @@
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.003844899999990048</v>
+        <v>0.003989500000002977</v>
       </c>
       <c r="U45">
         <v>21</v>
@@ -3574,7 +3574,7 @@
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.005169200000011642</v>
+        <v>0.00590400000000102</v>
       </c>
       <c r="U46">
         <v>27</v>
@@ -3642,7 +3642,7 @@
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.004423199999962435</v>
+        <v>0.005087800000012521</v>
       </c>
       <c r="U47">
         <v>23</v>
@@ -3710,7 +3710,7 @@
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.005807600000025559</v>
+        <v>0.006010700000004476</v>
       </c>
       <c r="U48">
         <v>31</v>
@@ -3778,7 +3778,7 @@
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.004555400000015197</v>
+        <v>0.005600600000008171</v>
       </c>
       <c r="U49">
         <v>21</v>
@@ -3846,7 +3846,7 @@
         <v>24</v>
       </c>
       <c r="T50">
-        <v>0.001622100000020055</v>
+        <v>0.001654700000003118</v>
       </c>
       <c r="U50">
         <v>7</v>
@@ -3914,7 +3914,7 @@
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.004277699999988727</v>
+        <v>0.004570799999996211</v>
       </c>
       <c r="U51">
         <v>23</v>
@@ -3982,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.006031400000040321</v>
+        <v>0.005870400000006271</v>
       </c>
       <c r="U52">
         <v>27</v>
@@ -4050,7 +4050,7 @@
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.004879000000016731</v>
+        <v>0.005138000000002307</v>
       </c>
       <c r="U53">
         <v>27</v>
@@ -4118,7 +4118,7 @@
         <v>22</v>
       </c>
       <c r="T54">
-        <v>0.004417999999986932</v>
+        <v>0.004732500000002915</v>
       </c>
       <c r="U54">
         <v>24</v>
@@ -4186,7 +4186,7 @@
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.003586999999981799</v>
+        <v>0.004266799999996351</v>
       </c>
       <c r="U55">
         <v>17</v>
@@ -4254,7 +4254,7 @@
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.004762200000016037</v>
+        <v>0.005424800000000118</v>
       </c>
       <c r="U56">
         <v>27</v>
@@ -4322,7 +4322,7 @@
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.004641399999968598</v>
+        <v>0.004077500000008172</v>
       </c>
       <c r="U57">
         <v>21</v>
@@ -4390,7 +4390,7 @@
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.004369499999995696</v>
+        <v>0.005564499999991313</v>
       </c>
       <c r="U58">
         <v>23</v>
@@ -4458,7 +4458,7 @@
         <v>23</v>
       </c>
       <c r="T59">
-        <v>0.00363559999999552</v>
+        <v>0.003814699999992399</v>
       </c>
       <c r="U59">
         <v>20</v>
@@ -4526,7 +4526,7 @@
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.004642100000012306</v>
+        <v>0.004944600000001742</v>
       </c>
       <c r="U60">
         <v>26</v>
@@ -4594,7 +4594,7 @@
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.005071000000043568</v>
+        <v>0.006007100000005039</v>
       </c>
       <c r="U61">
         <v>28</v>
@@ -4662,7 +4662,7 @@
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.005395800000030704</v>
+        <v>0.004372799999998733</v>
       </c>
       <c r="U62">
         <v>23</v>
@@ -4730,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.00496859999998378</v>
+        <v>0.005135199999998008</v>
       </c>
       <c r="U63">
         <v>28</v>
@@ -4798,7 +4798,7 @@
         <v>23</v>
       </c>
       <c r="T64">
-        <v>0.003132300000004307</v>
+        <v>0.00337000000000387</v>
       </c>
       <c r="U64">
         <v>16</v>
@@ -4866,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.005324499999971977</v>
+        <v>0.005274299999996401</v>
       </c>
       <c r="U65">
         <v>28</v>
@@ -4934,7 +4934,7 @@
         <v>23</v>
       </c>
       <c r="T66">
-        <v>0.004800799999998162</v>
+        <v>0.005064500000003136</v>
       </c>
       <c r="U66">
         <v>27</v>
@@ -5002,7 +5002,7 @@
         <v>23</v>
       </c>
       <c r="T67">
-        <v>0.005217100000038499</v>
+        <v>0.004944399999999405</v>
       </c>
       <c r="U67">
         <v>23</v>
@@ -5070,7 +5070,7 @@
         <v>23</v>
       </c>
       <c r="T68">
-        <v>0.004102799999998297</v>
+        <v>0.004409599999988245</v>
       </c>
       <c r="U68">
         <v>23</v>
@@ -5138,7 +5138,7 @@
         <v>23</v>
       </c>
       <c r="T69">
-        <v>0.005319199999973989</v>
+        <v>0.005445399999999267</v>
       </c>
       <c r="U69">
         <v>29</v>
@@ -5206,7 +5206,7 @@
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.005079399999999623</v>
+        <v>0.004889699999992558</v>
       </c>
       <c r="U70">
         <v>23</v>
@@ -5274,7 +5274,7 @@
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.004932499999995343</v>
+        <v>0.005248999999992066</v>
       </c>
       <c r="U71">
         <v>27</v>
@@ -5342,7 +5342,7 @@
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.005141200000025492</v>
+        <v>0.005105799999995497</v>
       </c>
       <c r="U72">
         <v>27</v>
@@ -5410,7 +5410,7 @@
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.004876300000034917</v>
+        <v>0.004444500000005291</v>
       </c>
       <c r="U73">
         <v>23</v>
@@ -5478,7 +5478,7 @@
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.004047099999979764</v>
+        <v>0.004335100000005809</v>
       </c>
       <c r="U74">
         <v>21</v>
@@ -5546,7 +5546,7 @@
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.006096399999989899</v>
+        <v>0.005725400000002878</v>
       </c>
       <c r="U75">
         <v>29</v>
@@ -5614,7 +5614,7 @@
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.004402800000036677</v>
+        <v>0.004665499999987333</v>
       </c>
       <c r="U76">
         <v>24</v>
@@ -5682,7 +5682,7 @@
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.004842400000029556</v>
+        <v>0.005504500000000689</v>
       </c>
       <c r="U77">
         <v>27</v>
@@ -5750,7 +5750,7 @@
         <v>23</v>
       </c>
       <c r="T78">
-        <v>0.006263200000034885</v>
+        <v>0.004947199999989493</v>
       </c>
       <c r="U78">
         <v>27</v>
@@ -5818,7 +5818,7 @@
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.003550899999993362</v>
+        <v>0.003894500000001244</v>
       </c>
       <c r="U79">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.00327220000002626</v>
+        <v>0.004158300000000281</v>
       </c>
       <c r="U80">
         <v>17</v>
@@ -5954,7 +5954,7 @@
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.005207300000051873</v>
+        <v>0.005333199999995486</v>
       </c>
       <c r="U81">
         <v>28</v>
@@ -6022,7 +6022,7 @@
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.005139499999984309</v>
+        <v>0.005538100000009649</v>
       </c>
       <c r="U82">
         <v>29</v>
@@ -6090,7 +6090,7 @@
         <v>23</v>
       </c>
       <c r="T83">
-        <v>0.005351500000017495</v>
+        <v>0.005523999999994089</v>
       </c>
       <c r="U83">
         <v>26</v>
@@ -6158,7 +6158,7 @@
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.004454800000019077</v>
+        <v>0.004543299999994588</v>
       </c>
       <c r="U84">
         <v>24</v>
@@ -6226,7 +6226,7 @@
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.004679199999998218</v>
+        <v>0.004609099999996147</v>
       </c>
       <c r="U85">
         <v>24</v>
@@ -6294,7 +6294,7 @@
         <v>25</v>
       </c>
       <c r="T86">
-        <v>0.004298600000026909</v>
+        <v>0.004048100000005661</v>
       </c>
       <c r="U86">
         <v>17</v>
@@ -6362,7 +6362,7 @@
         <v>23</v>
       </c>
       <c r="T87">
-        <v>0.005379500000003645</v>
+        <v>0.005446199999994406</v>
       </c>
       <c r="U87">
         <v>29</v>
@@ -6430,7 +6430,7 @@
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.004390600000022005</v>
+        <v>0.004343399999996223</v>
       </c>
       <c r="U88">
         <v>23</v>
@@ -6498,7 +6498,7 @@
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.005993799999998828</v>
+        <v>0.006459800000001792</v>
       </c>
       <c r="U89">
         <v>30</v>
@@ -6566,7 +6566,7 @@
         <v>23</v>
       </c>
       <c r="T90">
-        <v>0.005790799999999763</v>
+        <v>0.005822999999992362</v>
       </c>
       <c r="U90">
         <v>29</v>
@@ -6634,7 +6634,7 @@
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.004763599999989765</v>
+        <v>0.005116499999999746</v>
       </c>
       <c r="U91">
         <v>27</v>
@@ -6702,7 +6702,7 @@
         <v>23</v>
       </c>
       <c r="T92">
-        <v>0.004288399999950343</v>
+        <v>0.004653700000005756</v>
       </c>
       <c r="U92">
         <v>23</v>
@@ -6770,7 +6770,7 @@
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.004404800000031628</v>
+        <v>0.004918599999996331</v>
       </c>
       <c r="U93">
         <v>23</v>
@@ -6838,7 +6838,7 @@
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.004753600000015012</v>
+        <v>0.004429800000011141</v>
       </c>
       <c r="U94">
         <v>23</v>
@@ -6906,7 +6906,7 @@
         <v>23</v>
       </c>
       <c r="T95">
-        <v>0.005098299999986011</v>
+        <v>0.005517800000006901</v>
       </c>
       <c r="U95">
         <v>29</v>
@@ -6974,7 +6974,7 @@
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.005594900000005509</v>
+        <v>0.007607300000003647</v>
       </c>
       <c r="U96">
         <v>31</v>
@@ -7042,7 +7042,7 @@
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.0051143999999681</v>
+        <v>0.00446989999998948</v>
       </c>
       <c r="U97">
         <v>23</v>
@@ -7110,7 +7110,7 @@
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.004247599999985141</v>
+        <v>0.00475949999999159</v>
       </c>
       <c r="U98">
         <v>24</v>
@@ -7178,7 +7178,7 @@
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.005333499999949254</v>
+        <v>0.006013400000000502</v>
       </c>
       <c r="U99">
         <v>29</v>
@@ -7246,7 +7246,7 @@
         <v>25</v>
       </c>
       <c r="T100">
-        <v>0.006093600000042443</v>
+        <v>0.005751300000000015</v>
       </c>
       <c r="U100">
         <v>30</v>
@@ -7314,7 +7314,7 @@
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.00570709999999508</v>
+        <v>0.005573699999999349</v>
       </c>
       <c r="U101">
         <v>30</v>

--- a/tests/tests8/ЛМ 1.0.xlsx
+++ b/tests/tests8/ЛМ 1.0.xlsx
@@ -576,7 +576,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.003776599999923747</v>
+        <v>0.00392659999999978</v>
       </c>
       <c r="U2">
         <v>19</v>
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="T3">
-        <v>0.002525200000036421</v>
+        <v>0.002491299999999086</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -712,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.00227329999995618</v>
+        <v>0.00248279999999923</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -780,7 +780,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.003778499999953056</v>
+        <v>0.003643900000000144</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -848,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.005113800000003721</v>
+        <v>0.004981799999999481</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.001975900000047659</v>
+        <v>0.001929699999998036</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -984,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005559299999958967</v>
+        <v>0.004984199999999106</v>
       </c>
       <c r="U8">
         <v>27</v>
@@ -1052,7 +1052,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.001778199999989738</v>
+        <v>0.001680199999999132</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.004617300000063551</v>
+        <v>0.004222599999998522</v>
       </c>
       <c r="U10">
         <v>23</v>
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="T11">
-        <v>0.001510800000005474</v>
+        <v>0.001547099999999801</v>
       </c>
       <c r="U11">
         <v>7</v>

--- a/tests/tests8/ЛМ 1.0.xlsx
+++ b/tests/tests8/ЛМ 1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -52,6 +52,12 @@
     <t>V0_апр</t>
   </si>
   <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
+  </si>
+  <si>
     <t>СКО X</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>[1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1]</t>
   </si>
   <si>
     <t>[0, 1, 1, 1]</t>
@@ -443,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +525,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -531,16 +546,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.8950436254597</v>
+        <v>-0.04000498205865852</v>
       </c>
       <c r="F2">
-        <v>9.779120200637998</v>
+        <v>10.27135755960138</v>
       </c>
       <c r="G2">
-        <v>97.81074540646959</v>
+        <v>11.95092935084364</v>
       </c>
       <c r="H2">
-        <v>11.4593385342709</v>
+        <v>-1.885422097733607</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -555,37 +570,43 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.0280210191160687</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="N2">
-        <v>0.3875096741375939</v>
+        <v>15.80711097780685</v>
       </c>
       <c r="O2">
-        <v>0.6228830432265375</v>
+        <v>0.03006024772138595</v>
       </c>
       <c r="P2">
-        <v>0.1412147540378537</v>
+        <v>0.4304674357852315</v>
       </c>
       <c r="Q2">
-        <v>0.9372477174078645</v>
+        <v>0.6831509535772798</v>
       </c>
       <c r="R2">
-        <v>0.11397944466173</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
+        <v>0.1624342573100719</v>
+      </c>
+      <c r="S2">
+        <v>0.9990188106672991</v>
       </c>
       <c r="T2">
-        <v>0.00392659999999978</v>
-      </c>
-      <c r="U2">
+        <v>0.2325998114312309</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>0.003845600000204286</v>
+      </c>
+      <c r="W2">
         <v>19</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>0</v>
       </c>
@@ -599,16 +620,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.6484889619234</v>
+        <v>0.009104104103265316</v>
       </c>
       <c r="F3">
-        <v>10.57325557892808</v>
+        <v>9.667512506220127</v>
       </c>
       <c r="G3">
-        <v>75.4975513198375</v>
+        <v>10.69224826584029</v>
       </c>
       <c r="H3">
-        <v>12.69344523995237</v>
+        <v>2.92534284279767</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -623,37 +644,43 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.03105772014512787</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="N3">
-        <v>0.3591404512179616</v>
+        <v>18.32782196423818</v>
       </c>
       <c r="O3">
-        <v>0.5790488434986115</v>
+        <v>0.0270396382951657</v>
       </c>
       <c r="P3">
-        <v>0.1271789670223912</v>
+        <v>0.29149221683872</v>
       </c>
       <c r="Q3">
-        <v>0.9723197440785336</v>
+        <v>0.4670937975242911</v>
       </c>
       <c r="R3">
-        <v>0.4196038314092753</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
+        <v>0.1108453486160243</v>
+      </c>
+      <c r="S3">
+        <v>0.9941016863826391</v>
       </c>
       <c r="T3">
-        <v>0.002491299999999086</v>
-      </c>
-      <c r="U3">
+        <v>0.2468953065225836</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>0.002270199999657052</v>
+      </c>
+      <c r="W3">
         <v>12</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -667,16 +694,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.1142141967164439</v>
+        <v>0.02554670941146835</v>
       </c>
       <c r="F4">
-        <v>10.07385576917236</v>
+        <v>10.0741677768479</v>
       </c>
       <c r="G4">
-        <v>80.23346352664782</v>
+        <v>3.159966987807251</v>
       </c>
       <c r="H4">
-        <v>3.253603728915675</v>
+        <v>0.463026919878373</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -691,37 +718,43 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>0.02301534984027357</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="N4">
-        <v>0.1424935281599291</v>
+        <v>9.618122158119826</v>
       </c>
       <c r="O4">
-        <v>0.1318511431484148</v>
+        <v>0.02293947296180572</v>
       </c>
       <c r="P4">
-        <v>0.1301401196718872</v>
+        <v>0.1413217489846172</v>
       </c>
       <c r="Q4">
-        <v>0.9840346678294393</v>
+        <v>0.130497733164862</v>
       </c>
       <c r="R4">
-        <v>0.1281450993587299</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
+        <v>0.1287508150474582</v>
+      </c>
+      <c r="S4">
+        <v>1.05478326359183</v>
       </c>
       <c r="T4">
-        <v>0.00248279999999923</v>
-      </c>
-      <c r="U4">
+        <v>0.2323851944873332</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>0.001895600000352715</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -735,16 +768,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.1900136719268586</v>
+        <v>0.03618218493648694</v>
       </c>
       <c r="F5">
-        <v>9.794249887209942</v>
+        <v>9.821168838219856</v>
       </c>
       <c r="G5">
-        <v>99.81186138165944</v>
+        <v>10.93843736264693</v>
       </c>
       <c r="H5">
-        <v>11.02537927042843</v>
+        <v>-1.806275003705409</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -759,37 +792,43 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.02667264462129154</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="N5">
-        <v>0.3841504401511344</v>
+        <v>15.67687823027242</v>
       </c>
       <c r="O5">
-        <v>0.5976626143393441</v>
+        <v>0.02668167042474811</v>
       </c>
       <c r="P5">
-        <v>0.1514916127313805</v>
+        <v>0.385264607166994</v>
       </c>
       <c r="Q5">
-        <v>0.9520054021344233</v>
+        <v>0.6009929134550468</v>
       </c>
       <c r="R5">
-        <v>0.2012154379546379</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
+        <v>0.1486394013775086</v>
+      </c>
+      <c r="S5">
+        <v>1.045821393245179</v>
       </c>
       <c r="T5">
-        <v>0.003643900000000144</v>
-      </c>
-      <c r="U5">
+        <v>0.1534317876959304</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
+        <v>0.003651299999546609</v>
+      </c>
+      <c r="W5">
         <v>19</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -803,16 +842,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.8735468615809</v>
+        <v>-0.01130343854670472</v>
       </c>
       <c r="F6">
-        <v>10.04253503877893</v>
+        <v>10.1620472377982</v>
       </c>
       <c r="G6">
-        <v>173.8459267284187</v>
+        <v>1.04965618043578</v>
       </c>
       <c r="H6">
-        <v>9.622134347114283</v>
+        <v>-9.706007518748331</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -827,37 +866,43 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>0.01031492140426508</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="N6">
-        <v>0.1226756509675103</v>
+        <v>4.673171010711503</v>
       </c>
       <c r="O6">
-        <v>0.03922894947457836</v>
+        <v>0.01045938003420003</v>
       </c>
       <c r="P6">
-        <v>0.1496913131787099</v>
+        <v>0.1255694965189405</v>
       </c>
       <c r="Q6">
-        <v>0.9152149655509457</v>
+        <v>0.03988688231869552</v>
       </c>
       <c r="R6">
-        <v>0.05865197821038126</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
+        <v>0.1531378473446088</v>
+      </c>
+      <c r="S6">
+        <v>0.9390620674687132</v>
       </c>
       <c r="T6">
-        <v>0.004981799999999481</v>
-      </c>
-      <c r="U6">
+        <v>0.1469083663010815</v>
+      </c>
+      <c r="U6" t="s">
         <v>24</v>
       </c>
       <c r="V6">
+        <v>0.004475199999433244</v>
+      </c>
+      <c r="W6">
+        <v>24</v>
+      </c>
+      <c r="X6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -871,16 +916,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>0.09448785577570488</v>
+        <v>-0.02958962658916765</v>
       </c>
       <c r="F7">
-        <v>9.822155361394286</v>
+        <v>10.17587825937625</v>
       </c>
       <c r="G7">
-        <v>39.44318864914689</v>
+        <v>8.96512825062571</v>
       </c>
       <c r="H7">
-        <v>13.24429251758126</v>
+        <v>10.61939501568963</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -895,37 +940,43 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>0.0287291128458044</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="N7">
-        <v>0.2728280445430076</v>
+        <v>22.87529985576693</v>
       </c>
       <c r="O7">
-        <v>0.3503523464928973</v>
+        <v>0.03009168068583696</v>
       </c>
       <c r="P7">
-        <v>0.3554589867597649</v>
+        <v>0.2948235016154411</v>
       </c>
       <c r="Q7">
-        <v>0.9877598090788949</v>
+        <v>0.3821434644735167</v>
       </c>
       <c r="R7">
-        <v>0.1041659692578841</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
+        <v>0.3786405669077078</v>
+      </c>
+      <c r="S7">
+        <v>0.959640718547745</v>
       </c>
       <c r="T7">
-        <v>0.001929699999998036</v>
-      </c>
-      <c r="U7">
+        <v>0.1594324278706047</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>0.00218369999947754</v>
+      </c>
+      <c r="W7">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -939,16 +990,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>359.9311924338693</v>
+        <v>-0.0445468480609256</v>
       </c>
       <c r="F8">
-        <v>9.947395877586207</v>
+        <v>10.59846897224539</v>
       </c>
       <c r="G8">
-        <v>160.5251984384019</v>
+        <v>2.686986114266486</v>
       </c>
       <c r="H8">
-        <v>6.936597300939671</v>
+        <v>-7.13202211304374</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -963,37 +1014,43 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>0.02629309474207908</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="N8">
-        <v>0.3946798129459155</v>
+        <v>3.973338297383755</v>
       </c>
       <c r="O8">
-        <v>0.2445357753440129</v>
+        <v>0.02937493113116855</v>
       </c>
       <c r="P8">
-        <v>0.3546021633635135</v>
+        <v>0.45322155994737</v>
       </c>
       <c r="Q8">
-        <v>0.9275496848190602</v>
+        <v>0.279110368012053</v>
       </c>
       <c r="R8">
-        <v>0.04759212468314415</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
+        <v>0.4076684925231741</v>
+      </c>
+      <c r="S8">
+        <v>0.9274643583660206</v>
       </c>
       <c r="T8">
-        <v>0.004984199999999106</v>
-      </c>
-      <c r="U8">
+        <v>0.4537010364461986</v>
+      </c>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>0.005102899999656074</v>
+      </c>
+      <c r="W8">
         <v>27</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1007,16 +1064,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.9941689467261</v>
+        <v>0.02117432350968492</v>
       </c>
       <c r="F9">
-        <v>9.638786343812589</v>
+        <v>9.626549090251968</v>
       </c>
       <c r="G9">
-        <v>13.11544224043936</v>
+        <v>2.666123933978114</v>
       </c>
       <c r="H9">
-        <v>12.65066429732731</v>
+        <v>11.36598138282214</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1031,37 +1088,43 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.02619496139763681</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="N9">
-        <v>0.310094211536839</v>
+        <v>22.28974380606835</v>
       </c>
       <c r="O9">
-        <v>0.1597819526742909</v>
+        <v>0.02587090836338706</v>
       </c>
       <c r="P9">
-        <v>0.5473062207698681</v>
+        <v>0.29758867217314</v>
       </c>
       <c r="Q9">
-        <v>0.9133801788824364</v>
+        <v>0.1501641269381604</v>
       </c>
       <c r="R9">
-        <v>0.1361543651708152</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
+        <v>0.518786764282845</v>
+      </c>
+      <c r="S9">
+        <v>0.9491298976248271</v>
       </c>
       <c r="T9">
-        <v>0.001680199999999132</v>
-      </c>
-      <c r="U9">
+        <v>0.2765953877097025</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9">
+        <v>0.001633099999708065</v>
+      </c>
+      <c r="W9">
         <v>8</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1075,16 +1138,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>0.1020062999948025</v>
+        <v>-0.003943136194138616</v>
       </c>
       <c r="F10">
-        <v>10.08093288566683</v>
+        <v>9.890023085891489</v>
       </c>
       <c r="G10">
-        <v>157.3238565235077</v>
+        <v>5.598029762955523</v>
       </c>
       <c r="H10">
-        <v>14.73613799025356</v>
+        <v>-13.30670406254715</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1099,37 +1162,43 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>0.01304990778092318</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="N10">
-        <v>0.1743828805802406</v>
+        <v>11.86534188679525</v>
       </c>
       <c r="O10">
-        <v>0.1445990474036911</v>
+        <v>0.01285684641458209</v>
       </c>
       <c r="P10">
-        <v>0.2798494526275511</v>
+        <v>0.1682649196746848</v>
       </c>
       <c r="Q10">
-        <v>1.086908330677369</v>
+        <v>0.1409540952216511</v>
       </c>
       <c r="R10">
-        <v>0.06108518394162656</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
+        <v>0.2703624648267871</v>
+      </c>
+      <c r="S10">
+        <v>1.094248772140954</v>
       </c>
       <c r="T10">
-        <v>0.004222599999998522</v>
-      </c>
-      <c r="U10">
+        <v>0.05920559040958122</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>0.005613600000287988</v>
+      </c>
+      <c r="W10">
         <v>23</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1143,16 +1212,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>359.9981558082373</v>
+        <v>-0.006654844033093263</v>
       </c>
       <c r="F11">
-        <v>10.39676425028936</v>
+        <v>10.24609150528641</v>
       </c>
       <c r="G11">
-        <v>1.910235639513744</v>
+        <v>0.3061679609816762</v>
       </c>
       <c r="H11">
-        <v>8.490809170486438</v>
+        <v>8.793059449953807</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1167,33 +1236,39 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>0.02190813069624067</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="N11">
-        <v>0.4368870834848826</v>
+        <v>18.26849864379155</v>
       </c>
       <c r="O11">
-        <v>0.08000023623710335</v>
+        <v>0.02167453203404743</v>
       </c>
       <c r="P11">
-        <v>0.7048321789686233</v>
+        <v>0.4346034448925307</v>
       </c>
       <c r="Q11">
-        <v>0.9828349865028683</v>
+        <v>0.0804287790621027</v>
       </c>
       <c r="R11">
-        <v>0.2149829334083194</v>
-      </c>
-      <c r="S11" t="s">
-        <v>23</v>
+        <v>0.704080454885087</v>
+      </c>
+      <c r="S11">
+        <v>1.047047494573528</v>
       </c>
       <c r="T11">
-        <v>0.001547099999999801</v>
-      </c>
-      <c r="U11">
-        <v>7</v>
+        <v>0.07509278204679931</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
       </c>
       <c r="V11">
+        <v>0.001522300000033283</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 1.0.xlsx
+++ b/tests/tests8/ЛМ 1.0.xlsx
@@ -546,16 +546,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.04000498205865852</v>
+        <v>359.7768449761248</v>
       </c>
       <c r="F2">
-        <v>10.27135755960138</v>
+        <v>10.27143546520007</v>
       </c>
       <c r="G2">
-        <v>11.95092935084364</v>
+        <v>98.96529779397912</v>
       </c>
       <c r="H2">
-        <v>-1.885422097733607</v>
+        <v>12.09874079544968</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="V2">
-        <v>0.003845600000204286</v>
+        <v>0.003820900000000016</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -620,16 +620,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>0.009104104103265316</v>
+        <v>0.05395664984447295</v>
       </c>
       <c r="F3">
-        <v>9.667512506220127</v>
+        <v>9.667516792984333</v>
       </c>
       <c r="G3">
-        <v>10.69224826584029</v>
+        <v>74.69863040746563</v>
       </c>
       <c r="H3">
-        <v>2.92534284279767</v>
+        <v>11.0852065260992</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="V3">
-        <v>0.002270199999657052</v>
+        <v>0.00349440000000012</v>
       </c>
       <c r="W3">
         <v>12</v>
@@ -694,16 +694,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.02554670941146835</v>
+        <v>0.1452939363954159</v>
       </c>
       <c r="F4">
-        <v>10.0741677768479</v>
+        <v>10.07420016827352</v>
       </c>
       <c r="G4">
-        <v>3.159966987807251</v>
+        <v>81.66382810794614</v>
       </c>
       <c r="H4">
-        <v>0.463026919878373</v>
+        <v>3.193710270604346</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>24</v>
       </c>
       <c r="V4">
-        <v>0.001895600000352715</v>
+        <v>0.001771999999999885</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -768,16 +768,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.03618218493648694</v>
+        <v>0.2110825244516389</v>
       </c>
       <c r="F5">
-        <v>9.821168838219856</v>
+        <v>9.82123548741845</v>
       </c>
       <c r="G5">
-        <v>10.93843736264693</v>
+        <v>99.37669126999621</v>
       </c>
       <c r="H5">
-        <v>-1.806275003705409</v>
+        <v>11.08657031392312</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="V5">
-        <v>0.003651299999546609</v>
+        <v>0.004183600000000176</v>
       </c>
       <c r="W5">
         <v>19</v>
@@ -842,16 +842,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.01130343854670472</v>
+        <v>359.936268840278</v>
       </c>
       <c r="F6">
-        <v>10.1620472377982</v>
+        <v>10.16205352431117</v>
       </c>
       <c r="G6">
-        <v>1.04965618043578</v>
+        <v>173.8277355979066</v>
       </c>
       <c r="H6">
-        <v>-9.706007518748331</v>
+        <v>9.762600066126142</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="V6">
-        <v>0.004475199999433244</v>
+        <v>0.004479400000000133</v>
       </c>
       <c r="W6">
         <v>24</v>
@@ -916,16 +916,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.02958962658916765</v>
+        <v>359.8333946319512</v>
       </c>
       <c r="F7">
-        <v>10.17587825937625</v>
+        <v>10.17592127994551</v>
       </c>
       <c r="G7">
-        <v>8.96512825062571</v>
+        <v>40.17179750142028</v>
       </c>
       <c r="H7">
-        <v>10.61939501568963</v>
+        <v>13.89766437389466</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>24</v>
       </c>
       <c r="V7">
-        <v>0.00218369999947754</v>
+        <v>0.001919400000000238</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -990,16 +990,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>-0.0445468480609256</v>
+        <v>359.7591792398412</v>
       </c>
       <c r="F8">
-        <v>10.59846897224539</v>
+        <v>10.59856259014969</v>
       </c>
       <c r="G8">
-        <v>2.686986114266486</v>
+        <v>159.3561221731348</v>
       </c>
       <c r="H8">
-        <v>-7.13202211304374</v>
+        <v>7.621393166554642</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>25</v>
       </c>
       <c r="V8">
-        <v>0.005102899999656074</v>
+        <v>0.005118699999999698</v>
       </c>
       <c r="W8">
         <v>27</v>
@@ -1064,16 +1064,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>0.02117432350968492</v>
+        <v>0.1260262014187046</v>
       </c>
       <c r="F9">
-        <v>9.626549090251968</v>
+        <v>9.626572377487591</v>
       </c>
       <c r="G9">
-        <v>2.666123933978114</v>
+        <v>13.20122829902242</v>
       </c>
       <c r="H9">
-        <v>11.36598138282214</v>
+        <v>11.67449140759419</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="V9">
-        <v>0.001633099999708065</v>
+        <v>0.001640499999999712</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1138,16 +1138,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.003943136194138616</v>
+        <v>359.9771562666703</v>
       </c>
       <c r="F10">
-        <v>9.890023085891489</v>
+        <v>9.890023871952467</v>
       </c>
       <c r="G10">
-        <v>5.598029762955523</v>
+        <v>157.1838779161402</v>
       </c>
       <c r="H10">
-        <v>-13.30670406254715</v>
+        <v>14.43628450243153</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>24</v>
       </c>
       <c r="V10">
-        <v>0.005613600000287988</v>
+        <v>0.004536299999999827</v>
       </c>
       <c r="W10">
         <v>23</v>
@@ -1212,16 +1212,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-0.006654844033093263</v>
+        <v>359.9627863539379</v>
       </c>
       <c r="F11">
-        <v>10.24609150528641</v>
+        <v>10.24609366644925</v>
       </c>
       <c r="G11">
-        <v>0.3061679609816762</v>
+        <v>1.994191894626698</v>
       </c>
       <c r="H11">
-        <v>8.793059449953807</v>
+        <v>8.798388108668179</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>24</v>
       </c>
       <c r="V11">
-        <v>0.001522300000033283</v>
+        <v>0.001496200000000059</v>
       </c>
       <c r="W11">
         <v>7</v>

--- a/tests/tests8/ЛМ 1.0.xlsx
+++ b/tests/tests8/ЛМ 1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>П0_ист</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -452,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +537,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -570,43 +582,49 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="N2">
         <v>15.80711097780685</v>
       </c>
       <c r="O2">
+        <v>70.78441302877984</v>
+      </c>
+      <c r="P2">
+        <v>16.38439006637457</v>
+      </c>
+      <c r="Q2">
         <v>0.03006024772138595</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.4304674357852315</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.6831509535772798</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.1624342573100719</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.9990188106672991</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.2325998114312309</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2">
-        <v>0.003820900000000016</v>
-      </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>0.003736900000006926</v>
+      </c>
+      <c r="Y2">
         <v>19</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>0</v>
       </c>
@@ -644,43 +662,49 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="N3">
         <v>18.32782196423818</v>
       </c>
       <c r="O3">
+        <v>52.98936926300751</v>
+      </c>
+      <c r="P3">
+        <v>17.54519473675492</v>
+      </c>
+      <c r="Q3">
         <v>0.0270396382951657</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.29149221683872</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.4670937975242911</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.1108453486160243</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.9941016863826391</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.2468953065225836</v>
       </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3">
-        <v>0.00349440000000012</v>
-      </c>
-      <c r="W3">
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>0.002382500000010168</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0</v>
       </c>
@@ -718,43 +742,49 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="N4">
         <v>9.618122158119826</v>
       </c>
       <c r="O4">
+        <v>31.90018368623332</v>
+      </c>
+      <c r="P4">
+        <v>9.439011584733716</v>
+      </c>
+      <c r="Q4">
         <v>0.02293947296180572</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.1413217489846172</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.130497733164862</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.1287508150474582</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>1.05478326359183</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.2323851944873332</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4">
-        <v>0.001771999999999885</v>
-      </c>
-      <c r="W4">
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>0.001634899999999107</v>
+      </c>
+      <c r="Y4">
         <v>8</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>0</v>
       </c>
@@ -792,43 +822,49 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="N5">
         <v>15.67687823027242</v>
       </c>
       <c r="O5">
+        <v>70.63587726932727</v>
+      </c>
+      <c r="P5">
+        <v>15.19217548976954</v>
+      </c>
+      <c r="Q5">
         <v>0.02668167042474811</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.385264607166994</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.6009929134550468</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.1486394013775086</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>1.045821393245179</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.1534317876959304</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5">
-        <v>0.004183600000000176</v>
-      </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>0.003600200000022369</v>
+      </c>
+      <c r="Y5">
         <v>19</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0</v>
       </c>
@@ -866,43 +902,49 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="N6">
         <v>4.673171010711503</v>
       </c>
       <c r="O6">
+        <v>149.471429084662</v>
+      </c>
+      <c r="P6">
+        <v>4.761595892688741</v>
+      </c>
+      <c r="Q6">
         <v>0.01045938003420003</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.1255694965189405</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.03988688231869552</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.1531378473446088</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.9390620674687132</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.1469083663010815</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6">
+        <v>0.004395999999985634</v>
+      </c>
+      <c r="Y6">
         <v>24</v>
       </c>
-      <c r="V6">
-        <v>0.004479400000000133</v>
-      </c>
-      <c r="W6">
-        <v>24</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>0</v>
       </c>
@@ -940,43 +982,49 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="N7">
         <v>22.87529985576693</v>
       </c>
       <c r="O7">
+        <v>30.37362924581104</v>
+      </c>
+      <c r="P7">
+        <v>23.53274130615202</v>
+      </c>
+      <c r="Q7">
         <v>0.03009168068583696</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.2948235016154411</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.3821434644735167</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.3786405669077078</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.959640718547745</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.1594324278706047</v>
       </c>
-      <c r="U7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7">
-        <v>0.001919400000000238</v>
-      </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>0.001957400000009102</v>
+      </c>
+      <c r="Y7">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1014,43 +1062,49 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="N8">
         <v>3.973338297383755</v>
       </c>
       <c r="O8">
+        <v>97.54651595257081</v>
+      </c>
+      <c r="P8">
+        <v>4.388299615095818</v>
+      </c>
+      <c r="Q8">
         <v>0.02937493113116855</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.45322155994737</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.279110368012053</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.4076684925231741</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.9274643583660206</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.4537010364461986</v>
       </c>
-      <c r="U8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8">
-        <v>0.005118699999999698</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
         <v>27</v>
       </c>
       <c r="X8">
+        <v>0.004982600000005277</v>
+      </c>
+      <c r="Y8">
+        <v>27</v>
+      </c>
+      <c r="Z8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1088,43 +1142,49 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="N9">
         <v>22.28974380606835</v>
       </c>
       <c r="O9">
+        <v>12.00482979964558</v>
+      </c>
+      <c r="P9">
+        <v>21.11106168957779</v>
+      </c>
+      <c r="Q9">
         <v>0.02587090836338706</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.29758867217314</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.1501641269381604</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.518786764282845</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.9491298976248271</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.2765953877097025</v>
       </c>
-      <c r="U9" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9">
-        <v>0.001640499999999712</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9">
+        <v>0.002602200000012544</v>
+      </c>
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1162,43 +1222,49 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="N10">
         <v>11.86534188679525</v>
       </c>
       <c r="O10">
+        <v>137.7979730165463</v>
+      </c>
+      <c r="P10">
+        <v>11.73678352706638</v>
+      </c>
+      <c r="Q10">
         <v>0.01285684641458209</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.1682649196746848</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.1409540952216511</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.2703624648267871</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1.094248772140954</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.05920559040958122</v>
       </c>
-      <c r="U10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10">
-        <v>0.004536299999999827</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>0.004358200000012857</v>
+      </c>
+      <c r="Y10">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1236,39 +1302,45 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="N11">
         <v>18.26849864379155</v>
       </c>
       <c r="O11">
+        <v>4.813975124874453</v>
+      </c>
+      <c r="P11">
+        <v>18.24576376713277</v>
+      </c>
+      <c r="Q11">
         <v>0.02167453203404743</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.4346034448925307</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.0804287790621027</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.704080454885087</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1.047047494573528</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.07509278204679931</v>
       </c>
-      <c r="U11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11">
-        <v>0.001496200000000059</v>
-      </c>
-      <c r="W11">
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>0.001458799999994653</v>
+      </c>
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 1.0.xlsx
+++ b/tests/tests8/ЛМ 1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
   <si>
     <t>П0_ист</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>[0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1]</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +618,7 @@
         <v>26</v>
       </c>
       <c r="X2">
-        <v>0.003736900000006926</v>
+        <v>0.003602899999975762</v>
       </c>
       <c r="Y2">
         <v>19</v>
@@ -695,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="X3">
-        <v>0.002382500000010168</v>
+        <v>0.002769499999999425</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -775,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="X4">
-        <v>0.001634899999999107</v>
+        <v>0.001949400000000878</v>
       </c>
       <c r="Y4">
         <v>8</v>
@@ -855,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="X5">
-        <v>0.003600200000022369</v>
+        <v>0.003465000000005602</v>
       </c>
       <c r="Y5">
         <v>19</v>
@@ -935,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="X6">
-        <v>0.004395999999985634</v>
+        <v>0.004592099999996435</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -1015,7 +1018,7 @@
         <v>26</v>
       </c>
       <c r="X7">
-        <v>0.001957400000009102</v>
+        <v>0.001865500000008069</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1095,7 +1098,7 @@
         <v>27</v>
       </c>
       <c r="X8">
-        <v>0.004982600000005277</v>
+        <v>0.005385499999988497</v>
       </c>
       <c r="Y8">
         <v>27</v>
@@ -1175,7 +1178,7 @@
         <v>28</v>
       </c>
       <c r="X9">
-        <v>0.002602200000012544</v>
+        <v>0.001603500000015856</v>
       </c>
       <c r="Y9">
         <v>8</v>
@@ -1255,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="X10">
-        <v>0.004358200000012857</v>
+        <v>0.004087999999995873</v>
       </c>
       <c r="Y10">
         <v>23</v>
@@ -1335,13 +1338,7213 @@
         <v>26</v>
       </c>
       <c r="X11">
-        <v>0.001458799999994653</v>
+        <v>0.001447399999989329</v>
       </c>
       <c r="Y11">
         <v>7</v>
       </c>
       <c r="Z11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.93613064247</v>
+      </c>
+      <c r="F12">
+        <v>9.99670799022195</v>
+      </c>
+      <c r="G12">
+        <v>138.8641750441908</v>
+      </c>
+      <c r="H12">
+        <v>3.260475029282677</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="N12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="O12">
+        <v>40.09818849832135</v>
+      </c>
+      <c r="P12">
+        <v>5.795968691671005</v>
+      </c>
+      <c r="Q12">
+        <v>0.02094539323396636</v>
+      </c>
+      <c r="R12">
+        <v>0.1106152996092184</v>
+      </c>
+      <c r="S12">
+        <v>0.1013260156107036</v>
+      </c>
+      <c r="T12">
+        <v>0.07348716163223244</v>
+      </c>
+      <c r="U12">
+        <v>0.8897667978980101</v>
+      </c>
+      <c r="V12">
+        <v>0.03039985018596675</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>0.002688300000016852</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>0.05553900257981469</v>
+      </c>
+      <c r="F13">
+        <v>9.692069475919043</v>
+      </c>
+      <c r="G13">
+        <v>30.58512534896956</v>
+      </c>
+      <c r="H13">
+        <v>3.122044097648934</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="N13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="O13">
+        <v>16.67798015568095</v>
+      </c>
+      <c r="P13">
+        <v>10.7532869233522</v>
+      </c>
+      <c r="Q13">
+        <v>0.02118619546765399</v>
+      </c>
+      <c r="R13">
+        <v>0.1584023942697331</v>
+      </c>
+      <c r="S13">
+        <v>0.09009938876837204</v>
+      </c>
+      <c r="T13">
+        <v>0.237076636373566</v>
+      </c>
+      <c r="U13">
+        <v>0.9625839246606829</v>
+      </c>
+      <c r="V13">
+        <v>0.2643012339101485</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>0.001620299999984809</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>0.06076434213692538</v>
+      </c>
+      <c r="F14">
+        <v>10.22800536810574</v>
+      </c>
+      <c r="G14">
+        <v>27.86378138914824</v>
+      </c>
+      <c r="H14">
+        <v>12.50535732510868</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="N14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="O14">
+        <v>21.43039487232483</v>
+      </c>
+      <c r="P14">
+        <v>22.42892779331887</v>
+      </c>
+      <c r="Q14">
+        <v>0.0290773802410614</v>
+      </c>
+      <c r="R14">
+        <v>0.2776672239558455</v>
+      </c>
+      <c r="S14">
+        <v>0.2585217698585665</v>
+      </c>
+      <c r="T14">
+        <v>0.4249471804320163</v>
+      </c>
+      <c r="U14">
+        <v>1.007253704187153</v>
+      </c>
+      <c r="V14">
+        <v>0.2347792432956203</v>
+      </c>
+      <c r="W14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14">
+        <v>0.001733299999983728</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>359.9909926762978</v>
+      </c>
+      <c r="F15">
+        <v>10.11044377251986</v>
+      </c>
+      <c r="G15">
+        <v>139.7680343140593</v>
+      </c>
+      <c r="H15">
+        <v>5.963445054842214</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="N15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="O15">
+        <v>70.67453751007328</v>
+      </c>
+      <c r="P15">
+        <v>6.136672249696931</v>
+      </c>
+      <c r="Q15">
+        <v>0.02414649323418758</v>
+      </c>
+      <c r="R15">
+        <v>0.2308871271786357</v>
+      </c>
+      <c r="S15">
+        <v>0.2057461546019618</v>
+      </c>
+      <c r="T15">
+        <v>0.1380842224071259</v>
+      </c>
+      <c r="U15">
+        <v>0.8771286979988751</v>
+      </c>
+      <c r="V15">
+        <v>0.1130906877196015</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>0.004126299999995808</v>
+      </c>
+      <c r="Y15">
+        <v>22</v>
+      </c>
+      <c r="Z15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>0.1787774955394142</v>
+      </c>
+      <c r="F16">
+        <v>9.779877884450686</v>
+      </c>
+      <c r="G16">
+        <v>92.17445268392939</v>
+      </c>
+      <c r="H16">
+        <v>11.97894101019501</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="N16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="O16">
+        <v>66.96582471840833</v>
+      </c>
+      <c r="P16">
+        <v>16.91386301539355</v>
+      </c>
+      <c r="Q16">
+        <v>0.02718946124433316</v>
+      </c>
+      <c r="R16">
+        <v>0.3808664433759716</v>
+      </c>
+      <c r="S16">
+        <v>0.6391264381706355</v>
+      </c>
+      <c r="T16">
+        <v>0.1009529165566754</v>
+      </c>
+      <c r="U16">
+        <v>1.038014880456845</v>
+      </c>
+      <c r="V16">
+        <v>0.1161057927656857</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>0.004081299999995736</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.04889003916781557</v>
+      </c>
+      <c r="F17">
+        <v>9.952760986746206</v>
+      </c>
+      <c r="G17">
+        <v>152.9910319683045</v>
+      </c>
+      <c r="H17">
+        <v>5.106714984884881</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="N17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="O17">
+        <v>64.65370512711699</v>
+      </c>
+      <c r="P17">
+        <v>4.38388789052865</v>
+      </c>
+      <c r="Q17">
+        <v>0.022105107237961</v>
+      </c>
+      <c r="R17">
+        <v>0.1656345969462415</v>
+      </c>
+      <c r="S17">
+        <v>0.1363445378811717</v>
+      </c>
+      <c r="T17">
+        <v>0.09257018796765148</v>
+      </c>
+      <c r="U17">
+        <v>1.001657916286923</v>
+      </c>
+      <c r="V17">
+        <v>0.04137588935043127</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>0.003910799999999881</v>
+      </c>
+      <c r="Y17">
+        <v>21</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>0.09506905401253557</v>
+      </c>
+      <c r="F18">
+        <v>9.611950045663665</v>
+      </c>
+      <c r="G18">
+        <v>39.85317277622406</v>
+      </c>
+      <c r="H18">
+        <v>8.605216884864213</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="N18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="O18">
+        <v>27.60657789221418</v>
+      </c>
+      <c r="P18">
+        <v>16.84018030952606</v>
+      </c>
+      <c r="Q18">
+        <v>0.02574704972535162</v>
+      </c>
+      <c r="R18">
+        <v>0.2052602748701698</v>
+      </c>
+      <c r="S18">
+        <v>0.2163170635307856</v>
+      </c>
+      <c r="T18">
+        <v>0.250236613801098</v>
+      </c>
+      <c r="U18">
+        <v>0.8511604807055785</v>
+      </c>
+      <c r="V18">
+        <v>0.3261691836916498</v>
+      </c>
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18">
+        <v>0.001630400000010468</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.8355192797434</v>
+      </c>
+      <c r="F19">
+        <v>9.862164156628875</v>
+      </c>
+      <c r="G19">
+        <v>52.39014481503147</v>
+      </c>
+      <c r="H19">
+        <v>9.4707772323168</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="N19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="O19">
+        <v>35.57932685227636</v>
+      </c>
+      <c r="P19">
+        <v>17.4368388759586</v>
+      </c>
+      <c r="Q19">
+        <v>0.02712571044374975</v>
+      </c>
+      <c r="R19">
+        <v>0.2312852647904448</v>
+      </c>
+      <c r="S19">
+        <v>0.2920350362475028</v>
+      </c>
+      <c r="T19">
+        <v>0.2112323676695937</v>
+      </c>
+      <c r="U19">
+        <v>1.030824179702992</v>
+      </c>
+      <c r="V19">
+        <v>0.07012712114247546</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19">
+        <v>0.001919600000007904</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.6758786999721</v>
+      </c>
+      <c r="F20">
+        <v>10.44971652126447</v>
+      </c>
+      <c r="G20">
+        <v>116.7982872516722</v>
+      </c>
+      <c r="H20">
+        <v>9.760210427962436</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="N20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="O20">
+        <v>77.55357489432591</v>
+      </c>
+      <c r="P20">
+        <v>11.84404819459037</v>
+      </c>
+      <c r="Q20">
+        <v>0.02988186677201631</v>
+      </c>
+      <c r="R20">
+        <v>0.4172651956534519</v>
+      </c>
+      <c r="S20">
+        <v>0.5184294487634397</v>
+      </c>
+      <c r="T20">
+        <v>0.2567426977575719</v>
+      </c>
+      <c r="U20">
+        <v>1.022568007549644</v>
+      </c>
+      <c r="V20">
+        <v>0.3523904311748395</v>
+      </c>
+      <c r="W20" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20">
+        <v>0.004095799999987548</v>
+      </c>
+      <c r="Y20">
+        <v>22</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.990822622813</v>
+      </c>
+      <c r="F21">
+        <v>9.834710031887344</v>
+      </c>
+      <c r="G21">
+        <v>17.36988966548842</v>
+      </c>
+      <c r="H21">
+        <v>12.35262776948167</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="N21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="O21">
+        <v>14.6724766611353</v>
+      </c>
+      <c r="P21">
+        <v>22.08575222738207</v>
+      </c>
+      <c r="Q21">
+        <v>0.02713080524583094</v>
+      </c>
+      <c r="R21">
+        <v>0.2874197185850029</v>
+      </c>
+      <c r="S21">
+        <v>0.1843074247858108</v>
+      </c>
+      <c r="T21">
+        <v>0.4946384073887817</v>
+      </c>
+      <c r="U21">
+        <v>0.9646528327675882</v>
+      </c>
+      <c r="V21">
+        <v>0.06079203221359671</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>0.001661299999994981</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>0.1486189663734337</v>
+      </c>
+      <c r="F22">
+        <v>9.557569361659267</v>
+      </c>
+      <c r="G22">
+        <v>105.7706299279193</v>
+      </c>
+      <c r="H22">
+        <v>12.92017711377566</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="N22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="O22">
+        <v>80.39467220209065</v>
+      </c>
+      <c r="P22">
+        <v>16.34498783278596</v>
+      </c>
+      <c r="Q22">
+        <v>0.0272718553430388</v>
+      </c>
+      <c r="R22">
+        <v>0.4883627123684419</v>
+      </c>
+      <c r="S22">
+        <v>0.8390033194338251</v>
+      </c>
+      <c r="T22">
+        <v>0.2916905044862512</v>
+      </c>
+      <c r="U22">
+        <v>0.9432494848850997</v>
+      </c>
+      <c r="V22">
+        <v>0.2680398947592377</v>
+      </c>
+      <c r="W22" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22">
+        <v>0.004106199999995397</v>
+      </c>
+      <c r="Y22">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>359.8491691918005</v>
+      </c>
+      <c r="F23">
+        <v>10.28809273363093</v>
+      </c>
+      <c r="G23">
+        <v>9.914309952051383</v>
+      </c>
+      <c r="H23">
+        <v>6.951432291434208</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="N23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="O23">
+        <v>9.221702574074369</v>
+      </c>
+      <c r="P23">
+        <v>16.09688309731965</v>
+      </c>
+      <c r="Q23">
+        <v>0.02306841662822869</v>
+      </c>
+      <c r="R23">
+        <v>0.2872320843730828</v>
+      </c>
+      <c r="S23">
+        <v>0.09780683649447985</v>
+      </c>
+      <c r="T23">
+        <v>0.472813322300914</v>
+      </c>
+      <c r="U23">
+        <v>1.013089289650647</v>
+      </c>
+      <c r="V23">
+        <v>0.3924601451846278</v>
+      </c>
+      <c r="W23" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23">
+        <v>0.0015104000000008</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.03391656154691469</v>
+      </c>
+      <c r="F24">
+        <v>10.36762248349623</v>
+      </c>
+      <c r="G24">
+        <v>38.78380844819843</v>
+      </c>
+      <c r="H24">
+        <v>8.68415934245337</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="N24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="O24">
+        <v>25.8878729245591</v>
+      </c>
+      <c r="P24">
+        <v>17.64527708214406</v>
+      </c>
+      <c r="Q24">
+        <v>0.02759717993161425</v>
+      </c>
+      <c r="R24">
+        <v>0.2299369165721237</v>
+      </c>
+      <c r="S24">
+        <v>0.2246403129002589</v>
+      </c>
+      <c r="T24">
+        <v>0.2825874395111721</v>
+      </c>
+      <c r="U24">
+        <v>1.102593477099471</v>
+      </c>
+      <c r="V24">
+        <v>0.1128508674675398</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>0.001621599999992895</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.9690769066261</v>
+      </c>
+      <c r="F25">
+        <v>9.822987232796468</v>
+      </c>
+      <c r="G25">
+        <v>93.14655709696159</v>
+      </c>
+      <c r="H25">
+        <v>14.06718467223599</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="N25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="O25">
+        <v>70.78666829146617</v>
+      </c>
+      <c r="P25">
+        <v>19.08326624041301</v>
+      </c>
+      <c r="Q25">
+        <v>0.02920281625834242</v>
+      </c>
+      <c r="R25">
+        <v>0.4556738136728186</v>
+      </c>
+      <c r="S25">
+        <v>0.8485666615593147</v>
+      </c>
+      <c r="T25">
+        <v>0.1340146040718519</v>
+      </c>
+      <c r="U25">
+        <v>0.9160722252634178</v>
+      </c>
+      <c r="V25">
+        <v>0.1151709507638028</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>0.003511799999984078</v>
+      </c>
+      <c r="Y25">
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.9468866454908</v>
+      </c>
+      <c r="F26">
+        <v>9.970360878671892</v>
+      </c>
+      <c r="G26">
+        <v>172.735268373941</v>
+      </c>
+      <c r="H26">
+        <v>11.36528601875435</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="N26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="O26">
+        <v>154.9508810241964</v>
+      </c>
+      <c r="P26">
+        <v>6.815939016239949</v>
+      </c>
+      <c r="Q26">
+        <v>0.01019740226119069</v>
+      </c>
+      <c r="R26">
+        <v>0.1089807748303082</v>
+      </c>
+      <c r="S26">
+        <v>0.04074126287058181</v>
+      </c>
+      <c r="T26">
+        <v>0.1503526589685636</v>
+      </c>
+      <c r="U26">
+        <v>0.9737592046485467</v>
+      </c>
+      <c r="V26">
+        <v>0.01991068500086961</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>0.004450800000000754</v>
+      </c>
+      <c r="Y26">
+        <v>26</v>
+      </c>
+      <c r="Z26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>0.1134587567116691</v>
+      </c>
+      <c r="F27">
+        <v>9.884679314994685</v>
+      </c>
+      <c r="G27">
+        <v>156.8880154646957</v>
+      </c>
+      <c r="H27">
+        <v>9.812319192682693</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="N27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="O27">
+        <v>121.4989246703333</v>
+      </c>
+      <c r="P27">
+        <v>6.816370198458555</v>
+      </c>
+      <c r="Q27">
+        <v>0.01391014534879937</v>
+      </c>
+      <c r="R27">
+        <v>0.269526297162383</v>
+      </c>
+      <c r="S27">
+        <v>0.1780325154759271</v>
+      </c>
+      <c r="T27">
+        <v>0.3197137132526879</v>
+      </c>
+      <c r="U27">
+        <v>1.069020602510718</v>
+      </c>
+      <c r="V27">
+        <v>0.1052811621939975</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>0.004647500000004356</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>0.06422091498413687</v>
+      </c>
+      <c r="F28">
+        <v>10.11256890521684</v>
+      </c>
+      <c r="G28">
+        <v>56.02591375552863</v>
+      </c>
+      <c r="H28">
+        <v>9.192318695623907</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="N28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="O28">
+        <v>37.09528407742177</v>
+      </c>
+      <c r="P28">
+        <v>17.12615799217641</v>
+      </c>
+      <c r="Q28">
+        <v>0.02738055676903642</v>
+      </c>
+      <c r="R28">
+        <v>0.2391130316690382</v>
+      </c>
+      <c r="S28">
+        <v>0.3007873444283675</v>
+      </c>
+      <c r="T28">
+        <v>0.1978256816781551</v>
+      </c>
+      <c r="U28">
+        <v>0.9600881233944302</v>
+      </c>
+      <c r="V28">
+        <v>0.05646353422895445</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.001838599999985036</v>
+      </c>
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.8031067745647</v>
+      </c>
+      <c r="F29">
+        <v>9.989265787808533</v>
+      </c>
+      <c r="G29">
+        <v>76.59056148606287</v>
+      </c>
+      <c r="H29">
+        <v>12.88566628455223</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="N29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="O29">
+        <v>55.88570464060308</v>
+      </c>
+      <c r="P29">
+        <v>19.53976986603292</v>
+      </c>
+      <c r="Q29">
+        <v>0.02930019515096798</v>
+      </c>
+      <c r="R29">
+        <v>0.3474772181544618</v>
+      </c>
+      <c r="S29">
+        <v>0.5973780925559767</v>
+      </c>
+      <c r="T29">
+        <v>0.1126185585689776</v>
+      </c>
+      <c r="U29">
+        <v>1.035250421370018</v>
+      </c>
+      <c r="V29">
+        <v>0.05038794097318477</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>0.002463000000005877</v>
+      </c>
+      <c r="Y29">
+        <v>13</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.9402547678341</v>
+      </c>
+      <c r="F30">
+        <v>10.17381627875334</v>
+      </c>
+      <c r="G30">
+        <v>131.1140611714098</v>
+      </c>
+      <c r="H30">
+        <v>9.997393232984846</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="N30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="O30">
+        <v>91.86017553738056</v>
+      </c>
+      <c r="P30">
+        <v>10.2036903043648</v>
+      </c>
+      <c r="Q30">
+        <v>0.0280451600980566</v>
+      </c>
+      <c r="R30">
+        <v>0.5156232231159166</v>
+      </c>
+      <c r="S30">
+        <v>0.5678944318514937</v>
+      </c>
+      <c r="T30">
+        <v>0.4551050384552559</v>
+      </c>
+      <c r="U30">
+        <v>0.9581359667556641</v>
+      </c>
+      <c r="V30">
+        <v>0.1232944356956626</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>0.00469989999999143</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>359.8726962087889</v>
+      </c>
+      <c r="F31">
+        <v>10.39484158371848</v>
+      </c>
+      <c r="G31">
+        <v>154.4131591725971</v>
+      </c>
+      <c r="H31">
+        <v>6.814192850198976</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="N31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="O31">
+        <v>85.07312439599072</v>
+      </c>
+      <c r="P31">
+        <v>4.69619505015534</v>
+      </c>
+      <c r="Q31">
+        <v>0.02743995667359364</v>
+      </c>
+      <c r="R31">
+        <v>0.3325504080524798</v>
+      </c>
+      <c r="S31">
+        <v>0.2374747963673284</v>
+      </c>
+      <c r="T31">
+        <v>0.2610512012245532</v>
+      </c>
+      <c r="U31">
+        <v>1.005782327269951</v>
+      </c>
+      <c r="V31">
+        <v>0.3015659279311106</v>
+      </c>
+      <c r="W31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X31">
+        <v>0.004196900000010828</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.07194961460292376</v>
+      </c>
+      <c r="F32">
+        <v>9.798840608009304</v>
+      </c>
+      <c r="G32">
+        <v>115.8911595852755</v>
+      </c>
+      <c r="H32">
+        <v>7.335361170306602</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="N32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="O32">
+        <v>69.85536243516106</v>
+      </c>
+      <c r="P32">
+        <v>9.694711778382832</v>
+      </c>
+      <c r="Q32">
+        <v>0.02477151101542928</v>
+      </c>
+      <c r="R32">
+        <v>0.2776534594258452</v>
+      </c>
+      <c r="S32">
+        <v>0.3219156908815931</v>
+      </c>
+      <c r="T32">
+        <v>0.1401157018965862</v>
+      </c>
+      <c r="U32">
+        <v>0.9954434489512568</v>
+      </c>
+      <c r="V32">
+        <v>0.1409761141534563</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>0.003918599999991557</v>
+      </c>
+      <c r="Y32">
+        <v>21</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.1625112880303147</v>
+      </c>
+      <c r="F33">
+        <v>9.788540570593128</v>
+      </c>
+      <c r="G33">
+        <v>50.92354177076895</v>
+      </c>
+      <c r="H33">
+        <v>14.25751067830273</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>90</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="N33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="O33">
+        <v>38.88188406124038</v>
+      </c>
+      <c r="P33">
+        <v>23.06778240904924</v>
+      </c>
+      <c r="Q33">
+        <v>0.02900021558124756</v>
+      </c>
+      <c r="R33">
+        <v>0.3014035350067505</v>
+      </c>
+      <c r="S33">
+        <v>0.4775778191952814</v>
+      </c>
+      <c r="T33">
+        <v>0.3123564602357352</v>
+      </c>
+      <c r="U33">
+        <v>1.026046412091716</v>
+      </c>
+      <c r="V33">
+        <v>0.1282778384841262</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>0.001840700000002471</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>359.7646034277456</v>
+      </c>
+      <c r="F34">
+        <v>10.35374203492951</v>
+      </c>
+      <c r="G34">
+        <v>153.6803500408258</v>
+      </c>
+      <c r="H34">
+        <v>7.8903563643285</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="N34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="O34">
+        <v>98.01121233334622</v>
+      </c>
+      <c r="P34">
+        <v>5.37850470563923</v>
+      </c>
+      <c r="Q34">
+        <v>0.0292012344550317</v>
+      </c>
+      <c r="R34">
+        <v>0.474494447789199</v>
+      </c>
+      <c r="S34">
+        <v>0.3302644166573807</v>
+      </c>
+      <c r="T34">
+        <v>0.4366855407911996</v>
+      </c>
+      <c r="U34">
+        <v>1.008921293047723</v>
+      </c>
+      <c r="V34">
+        <v>0.2945601506498988</v>
+      </c>
+      <c r="W34" t="s">
+        <v>28</v>
+      </c>
+      <c r="X34">
+        <v>0.005221900000009327</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.3116924545056449</v>
+      </c>
+      <c r="F35">
+        <v>9.986048074395331</v>
+      </c>
+      <c r="G35">
+        <v>45.43287116676813</v>
+      </c>
+      <c r="H35">
+        <v>7.847271910499268</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="N35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="O35">
+        <v>29.57861772745745</v>
+      </c>
+      <c r="P35">
+        <v>16.07221732110006</v>
+      </c>
+      <c r="Q35">
+        <v>0.02622963558763513</v>
+      </c>
+      <c r="R35">
+        <v>0.2084379762769622</v>
+      </c>
+      <c r="S35">
+        <v>0.2209106050962988</v>
+      </c>
+      <c r="T35">
+        <v>0.227502209634477</v>
+      </c>
+      <c r="U35">
+        <v>0.9606152754704499</v>
+      </c>
+      <c r="V35">
+        <v>0.2542154278136226</v>
+      </c>
+      <c r="W35" t="s">
+        <v>28</v>
+      </c>
+      <c r="X35">
+        <v>0.001922500000006266</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="Z35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9777478927439</v>
+      </c>
+      <c r="F36">
+        <v>10.29911782458888</v>
+      </c>
+      <c r="G36">
+        <v>7.333510538612585</v>
+      </c>
+      <c r="H36">
+        <v>11.89137737285255</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="N36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="O36">
+        <v>7.791716130939114</v>
+      </c>
+      <c r="P36">
+        <v>22.03915863133164</v>
+      </c>
+      <c r="Q36">
+        <v>0.02574446678148981</v>
+      </c>
+      <c r="R36">
+        <v>0.3999143691557665</v>
+      </c>
+      <c r="S36">
+        <v>0.1245345144841652</v>
+      </c>
+      <c r="T36">
+        <v>0.6912749270031799</v>
+      </c>
+      <c r="U36">
+        <v>0.9552682735297682</v>
+      </c>
+      <c r="V36">
+        <v>0.1643151768125569</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>0.001494399999984353</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>359.9228091541827</v>
+      </c>
+      <c r="F37">
+        <v>10.11547200537829</v>
+      </c>
+      <c r="G37">
+        <v>83.14518636146371</v>
+      </c>
+      <c r="H37">
+        <v>6.810405946054916</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="N37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="O37">
+        <v>47.56958857682135</v>
+      </c>
+      <c r="P37">
+        <v>12.56053132496753</v>
+      </c>
+      <c r="Q37">
+        <v>0.02583842771300073</v>
+      </c>
+      <c r="R37">
+        <v>0.2185044779578901</v>
+      </c>
+      <c r="S37">
+        <v>0.2650440100356753</v>
+      </c>
+      <c r="T37">
+        <v>0.09035651207080866</v>
+      </c>
+      <c r="U37">
+        <v>1.043431304585038</v>
+      </c>
+      <c r="V37">
+        <v>0.146082050252056</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <v>0.002478400000001102</v>
+      </c>
+      <c r="Y37">
+        <v>12</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>0.2335040003026858</v>
+      </c>
+      <c r="F38">
+        <v>9.11939789440528</v>
+      </c>
+      <c r="G38">
+        <v>131.4776984325905</v>
+      </c>
+      <c r="H38">
+        <v>8.944130337859651</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>90</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="N38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="O38">
+        <v>93.74739888780778</v>
+      </c>
+      <c r="P38">
+        <v>9.268713577845364</v>
+      </c>
+      <c r="Q38">
+        <v>0.02303198425360903</v>
+      </c>
+      <c r="R38">
+        <v>0.4240911483264409</v>
+      </c>
+      <c r="S38">
+        <v>0.4785806787565836</v>
+      </c>
+      <c r="T38">
+        <v>0.3893512962568532</v>
+      </c>
+      <c r="U38">
+        <v>1.101044743078263</v>
+      </c>
+      <c r="V38">
+        <v>0.5079340570233689</v>
+      </c>
+      <c r="W38" t="s">
+        <v>29</v>
+      </c>
+      <c r="X38">
+        <v>0.004706199999986893</v>
+      </c>
+      <c r="Y38">
+        <v>26</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.04425533380112517</v>
+      </c>
+      <c r="F39">
+        <v>9.814369490563479</v>
+      </c>
+      <c r="G39">
+        <v>170.3107752896399</v>
+      </c>
+      <c r="H39">
+        <v>8.350221780740378</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>90</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="N39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="O39">
+        <v>133.0870519718116</v>
+      </c>
+      <c r="P39">
+        <v>3.922251533713963</v>
+      </c>
+      <c r="Q39">
+        <v>0.01106614954099608</v>
+      </c>
+      <c r="R39">
+        <v>0.1724721678145071</v>
+      </c>
+      <c r="S39">
+        <v>0.06821284940225149</v>
+      </c>
+      <c r="T39">
+        <v>0.1936675787142737</v>
+      </c>
+      <c r="U39">
+        <v>0.9694525720700086</v>
+      </c>
+      <c r="V39">
+        <v>0.1685766711060152</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>0.005231799999990017</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.7760703446483</v>
+      </c>
+      <c r="F40">
+        <v>10.24480100781311</v>
+      </c>
+      <c r="G40">
+        <v>69.60040131220771</v>
+      </c>
+      <c r="H40">
+        <v>13.73753016904336</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="N40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="O40">
+        <v>51.11083240871673</v>
+      </c>
+      <c r="P40">
+        <v>21.3031792471318</v>
+      </c>
+      <c r="Q40">
+        <v>0.03041011724338711</v>
+      </c>
+      <c r="R40">
+        <v>0.3533161893291673</v>
+      </c>
+      <c r="S40">
+        <v>0.6046367714680645</v>
+      </c>
+      <c r="T40">
+        <v>0.1755731236901251</v>
+      </c>
+      <c r="U40">
+        <v>1.062387813477791</v>
+      </c>
+      <c r="V40">
+        <v>0.1576880898268579</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40">
+        <v>0.002348800000021356</v>
+      </c>
+      <c r="Y40">
+        <v>12</v>
+      </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.9593091093706</v>
+      </c>
+      <c r="F41">
+        <v>10.00166358184718</v>
+      </c>
+      <c r="G41">
+        <v>98.39395665879589</v>
+      </c>
+      <c r="H41">
+        <v>12.61415329829019</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="N41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="O41">
+        <v>72.21861264539027</v>
+      </c>
+      <c r="P41">
+        <v>16.94780312896571</v>
+      </c>
+      <c r="Q41">
+        <v>0.02894773905188789</v>
+      </c>
+      <c r="R41">
+        <v>0.4416337594277079</v>
+      </c>
+      <c r="S41">
+        <v>0.7394018705009331</v>
+      </c>
+      <c r="T41">
+        <v>0.1711972070047598</v>
+      </c>
+      <c r="U41">
+        <v>1.045882021366367</v>
+      </c>
+      <c r="V41">
+        <v>0.01831779016673274</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>0.003729199999980892</v>
+      </c>
+      <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>359.9506231061507</v>
+      </c>
+      <c r="F42">
+        <v>10.08853997828539</v>
+      </c>
+      <c r="G42">
+        <v>71.75992441205121</v>
+      </c>
+      <c r="H42">
+        <v>3.845429757067658</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="N42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="O42">
+        <v>31.87392060063049</v>
+      </c>
+      <c r="P42">
+        <v>10.4997486895017</v>
+      </c>
+      <c r="Q42">
+        <v>0.02369176201108253</v>
+      </c>
+      <c r="R42">
+        <v>0.1532334195622431</v>
+      </c>
+      <c r="S42">
+        <v>0.145684079233204</v>
+      </c>
+      <c r="T42">
+        <v>0.1388340276981632</v>
+      </c>
+      <c r="U42">
+        <v>0.9686923558920442</v>
+      </c>
+      <c r="V42">
+        <v>0.2293350511863994</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>0.001630599999998594</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.2559025841278118</v>
+      </c>
+      <c r="F43">
+        <v>9.957805716180752</v>
+      </c>
+      <c r="G43">
+        <v>47.16669837950106</v>
+      </c>
+      <c r="H43">
+        <v>3.130655400345159</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="N43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="O43">
+        <v>21.85991937583109</v>
+      </c>
+      <c r="P43">
+        <v>10.66209899167555</v>
+      </c>
+      <c r="Q43">
+        <v>0.02257124033984521</v>
+      </c>
+      <c r="R43">
+        <v>0.1497283425682572</v>
+      </c>
+      <c r="S43">
+        <v>0.1092756069483975</v>
+      </c>
+      <c r="T43">
+        <v>0.1996484631093458</v>
+      </c>
+      <c r="U43">
+        <v>1.001330773575301</v>
+      </c>
+      <c r="V43">
+        <v>0.4586751753837824</v>
+      </c>
+      <c r="W43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X43">
+        <v>0.001654700000017328</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>0.2257882273220521</v>
+      </c>
+      <c r="F44">
+        <v>10.10745895655169</v>
+      </c>
+      <c r="G44">
+        <v>67.96168179777001</v>
+      </c>
+      <c r="H44">
+        <v>14.23881761180632</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="N44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="O44">
+        <v>50.803997562598</v>
+      </c>
+      <c r="P44">
+        <v>21.99826331664172</v>
+      </c>
+      <c r="Q44">
+        <v>0.0292714022823916</v>
+      </c>
+      <c r="R44">
+        <v>0.3561246434811357</v>
+      </c>
+      <c r="S44">
+        <v>0.6276279664249149</v>
+      </c>
+      <c r="T44">
+        <v>0.1950557868565473</v>
+      </c>
+      <c r="U44">
+        <v>0.9376851696032253</v>
+      </c>
+      <c r="V44">
+        <v>0.07916006547826063</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44">
+        <v>0.002305500000005622</v>
+      </c>
+      <c r="Y44">
+        <v>12</v>
+      </c>
+      <c r="Z44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.9231505620199</v>
+      </c>
+      <c r="F45">
+        <v>9.776785006742649</v>
+      </c>
+      <c r="G45">
+        <v>20.19493134247823</v>
+      </c>
+      <c r="H45">
+        <v>10.50799881049254</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="N45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="O45">
+        <v>16.17735641602551</v>
+      </c>
+      <c r="P45">
+        <v>19.77794941959817</v>
+      </c>
+      <c r="Q45">
+        <v>0.02617046206431669</v>
+      </c>
+      <c r="R45">
+        <v>0.2526525728822094</v>
+      </c>
+      <c r="S45">
+        <v>0.172464892857297</v>
+      </c>
+      <c r="T45">
+        <v>0.415445836135992</v>
+      </c>
+      <c r="U45">
+        <v>0.9781055447812758</v>
+      </c>
+      <c r="V45">
+        <v>0.0958829000372827</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <v>0.001813699999985374</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.04625526012260388</v>
+      </c>
+      <c r="F46">
+        <v>10.23197568779986</v>
+      </c>
+      <c r="G46">
+        <v>150.2274139297927</v>
+      </c>
+      <c r="H46">
+        <v>4.418814277217759</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="N46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="O46">
+        <v>51.67581572838445</v>
+      </c>
+      <c r="P46">
+        <v>4.858743100706731</v>
+      </c>
+      <c r="Q46">
+        <v>0.02168435656629281</v>
+      </c>
+      <c r="R46">
+        <v>0.1317277405501439</v>
+      </c>
+      <c r="S46">
+        <v>0.1152623831613484</v>
+      </c>
+      <c r="T46">
+        <v>0.06310471466863546</v>
+      </c>
+      <c r="U46">
+        <v>0.9980567289640075</v>
+      </c>
+      <c r="V46">
+        <v>0.1856111868031564</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>0.003115900000011607</v>
+      </c>
+      <c r="Y46">
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9630812359662</v>
+      </c>
+      <c r="F47">
+        <v>9.979721211539996</v>
+      </c>
+      <c r="G47">
+        <v>178.0061486023054</v>
+      </c>
+      <c r="H47">
+        <v>9.576995896726283</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="N47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="O47">
+        <v>159.2238306692892</v>
+      </c>
+      <c r="P47">
+        <v>4.408768210819777</v>
+      </c>
+      <c r="Q47">
+        <v>0.009763214149757844</v>
+      </c>
+      <c r="R47">
+        <v>0.09696672422961962</v>
+      </c>
+      <c r="S47">
+        <v>0.02422041792498884</v>
+      </c>
+      <c r="T47">
+        <v>0.1186636362554909</v>
+      </c>
+      <c r="U47">
+        <v>0.9442029691270779</v>
+      </c>
+      <c r="V47">
+        <v>0.01684676928811794</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>0.005302700000015648</v>
+      </c>
+      <c r="Y47">
+        <v>27</v>
+      </c>
+      <c r="Z47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>0.1056212863439829</v>
+      </c>
+      <c r="F48">
+        <v>9.636905890843774</v>
+      </c>
+      <c r="G48">
+        <v>141.3819465171159</v>
+      </c>
+      <c r="H48">
+        <v>10.07126253648399</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="N48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="O48">
+        <v>105.5050301689996</v>
+      </c>
+      <c r="P48">
+        <v>9.06085288054849</v>
+      </c>
+      <c r="Q48">
+        <v>0.01994584964007608</v>
+      </c>
+      <c r="R48">
+        <v>0.4185251784553193</v>
+      </c>
+      <c r="S48">
+        <v>0.4097305221342686</v>
+      </c>
+      <c r="T48">
+        <v>0.4550702983903876</v>
+      </c>
+      <c r="U48">
+        <v>1.029446218960776</v>
+      </c>
+      <c r="V48">
+        <v>0.2359312363750425</v>
+      </c>
+      <c r="W48" t="s">
+        <v>28</v>
+      </c>
+      <c r="X48">
+        <v>0.004646699999995008</v>
+      </c>
+      <c r="Y48">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.06276390103724139</v>
+      </c>
+      <c r="F49">
+        <v>10.12816203903963</v>
+      </c>
+      <c r="G49">
+        <v>20.5149100535539</v>
+      </c>
+      <c r="H49">
+        <v>14.5035933933524</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="N49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="O49">
+        <v>17.0016416305964</v>
+      </c>
+      <c r="P49">
+        <v>24.90058775467303</v>
+      </c>
+      <c r="Q49">
+        <v>0.02941624065573953</v>
+      </c>
+      <c r="R49">
+        <v>0.3123523882936015</v>
+      </c>
+      <c r="S49">
+        <v>0.2440562462875664</v>
+      </c>
+      <c r="T49">
+        <v>0.5396105275991014</v>
+      </c>
+      <c r="U49">
+        <v>0.9957440349237555</v>
+      </c>
+      <c r="V49">
+        <v>0.04953817918201329</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>0.001643000000001393</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>359.9889026909563</v>
+      </c>
+      <c r="F50">
+        <v>9.552300731575327</v>
+      </c>
+      <c r="G50">
+        <v>2.863908675073846</v>
+      </c>
+      <c r="H50">
+        <v>13.91910675140436</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>90</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="N50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="O50">
+        <v>4.847903236885926</v>
+      </c>
+      <c r="P50">
+        <v>23.70280026096038</v>
+      </c>
+      <c r="Q50">
+        <v>0.02312311033974841</v>
+      </c>
+      <c r="R50">
+        <v>0.5169328659474778</v>
+      </c>
+      <c r="S50">
+        <v>0.1023486955379439</v>
+      </c>
+      <c r="T50">
+        <v>0.8801729868313672</v>
+      </c>
+      <c r="U50">
+        <v>1.018632100385765</v>
+      </c>
+      <c r="V50">
+        <v>0.0929917367167597</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>0.001510499999994863</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>359.9537666517933</v>
+      </c>
+      <c r="F51">
+        <v>9.833676067354142</v>
+      </c>
+      <c r="G51">
+        <v>53.27727290398624</v>
+      </c>
+      <c r="H51">
+        <v>5.951127017417065</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="N51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="O51">
+        <v>30.94221803354398</v>
+      </c>
+      <c r="P51">
+        <v>13.39351392036213</v>
+      </c>
+      <c r="Q51">
+        <v>0.02475208896601525</v>
+      </c>
+      <c r="R51">
+        <v>0.1781289892755937</v>
+      </c>
+      <c r="S51">
+        <v>0.1832602293745087</v>
+      </c>
+      <c r="T51">
+        <v>0.1764976844106889</v>
+      </c>
+      <c r="U51">
+        <v>0.910711071032241</v>
+      </c>
+      <c r="V51">
+        <v>0.07531064941842656</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>0.001722099999994953</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>359.9596400806245</v>
+      </c>
+      <c r="F52">
+        <v>10.03156073186206</v>
+      </c>
+      <c r="G52">
+        <v>88.67056662279813</v>
+      </c>
+      <c r="H52">
+        <v>5.836235134272712</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="N52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="O52">
+        <v>47.13650704140256</v>
+      </c>
+      <c r="P52">
+        <v>11.13949077195744</v>
+      </c>
+      <c r="Q52">
+        <v>0.02486169678737335</v>
+      </c>
+      <c r="R52">
+        <v>0.1966682676203622</v>
+      </c>
+      <c r="S52">
+        <v>0.226076839450868</v>
+      </c>
+      <c r="T52">
+        <v>0.08358953738636088</v>
+      </c>
+      <c r="U52">
+        <v>0.9802303731554249</v>
+      </c>
+      <c r="V52">
+        <v>0.09712988728786687</v>
+      </c>
+      <c r="W52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>0.002348799999992934</v>
+      </c>
+      <c r="Y52">
+        <v>12</v>
+      </c>
+      <c r="Z52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0.0002529885639165616</v>
+      </c>
+      <c r="F53">
+        <v>9.916339081284075</v>
+      </c>
+      <c r="G53">
+        <v>119.6803659593466</v>
+      </c>
+      <c r="H53">
+        <v>3.491919275356206</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>90</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="N53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="O53">
+        <v>42.63747400504612</v>
+      </c>
+      <c r="P53">
+        <v>7.102660256046748</v>
+      </c>
+      <c r="Q53">
+        <v>0.02191655331321377</v>
+      </c>
+      <c r="R53">
+        <v>0.1309649794049175</v>
+      </c>
+      <c r="S53">
+        <v>0.1268824231182342</v>
+      </c>
+      <c r="T53">
+        <v>0.07465273925230397</v>
+      </c>
+      <c r="U53">
+        <v>0.9731648490026812</v>
+      </c>
+      <c r="V53">
+        <v>0.1482958814386153</v>
+      </c>
+      <c r="W53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X53">
+        <v>0.00323099999999954</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+      <c r="Z53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.8306517803181</v>
+      </c>
+      <c r="F54">
+        <v>10.2357016328919</v>
+      </c>
+      <c r="G54">
+        <v>145.5682439127745</v>
+      </c>
+      <c r="H54">
+        <v>3.434395593711479</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>90</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="N54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="O54">
+        <v>39.43296347215883</v>
+      </c>
+      <c r="P54">
+        <v>5.463800404655305</v>
+      </c>
+      <c r="Q54">
+        <v>0.02114482085800529</v>
+      </c>
+      <c r="R54">
+        <v>0.1090421840830865</v>
+      </c>
+      <c r="S54">
+        <v>0.09731783990078323</v>
+      </c>
+      <c r="T54">
+        <v>0.07401192760948244</v>
+      </c>
+      <c r="U54">
+        <v>0.9238266626767414</v>
+      </c>
+      <c r="V54">
+        <v>0.3070295833532968</v>
+      </c>
+      <c r="W54" t="s">
+        <v>28</v>
+      </c>
+      <c r="X54">
+        <v>0.002677299999987781</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>0.001971498846943748</v>
+      </c>
+      <c r="F55">
+        <v>9.689595652077919</v>
+      </c>
+      <c r="G55">
+        <v>152.5641978111716</v>
+      </c>
+      <c r="H55">
+        <v>9.332501985285541</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="N55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="O55">
+        <v>114.358124995007</v>
+      </c>
+      <c r="P55">
+        <v>6.949374056707041</v>
+      </c>
+      <c r="Q55">
+        <v>0.01630690200947939</v>
+      </c>
+      <c r="R55">
+        <v>0.3283058412674913</v>
+      </c>
+      <c r="S55">
+        <v>0.2437330624044606</v>
+      </c>
+      <c r="T55">
+        <v>0.3714965001176287</v>
+      </c>
+      <c r="U55">
+        <v>1.120860462098682</v>
+      </c>
+      <c r="V55">
+        <v>0.1918489171713304</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55">
+        <v>0.00516039999999407</v>
+      </c>
+      <c r="Y55">
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.22720184807843</v>
+      </c>
+      <c r="F56">
+        <v>9.712439887412804</v>
+      </c>
+      <c r="G56">
+        <v>75.90075599085675</v>
+      </c>
+      <c r="H56">
+        <v>6.890648666986089</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="N56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="O56">
+        <v>45.36977552264668</v>
+      </c>
+      <c r="P56">
+        <v>12.96786250070776</v>
+      </c>
+      <c r="Q56">
+        <v>0.02470887289107279</v>
+      </c>
+      <c r="R56">
+        <v>0.2049369459330508</v>
+      </c>
+      <c r="S56">
+        <v>0.2559549788077136</v>
+      </c>
+      <c r="T56">
+        <v>0.1022673550695789</v>
+      </c>
+      <c r="U56">
+        <v>0.9830844475516061</v>
+      </c>
+      <c r="V56">
+        <v>0.2677202459260564</v>
+      </c>
+      <c r="W56" t="s">
+        <v>28</v>
+      </c>
+      <c r="X56">
+        <v>0.001907100000011042</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>359.9128977654705</v>
+      </c>
+      <c r="F57">
+        <v>10.07810363105399</v>
+      </c>
+      <c r="G57">
+        <v>17.00650586783978</v>
+      </c>
+      <c r="H57">
+        <v>14.92320221350842</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="N57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="O57">
+        <v>14.57495145873085</v>
+      </c>
+      <c r="P57">
+        <v>25.40400936038575</v>
+      </c>
+      <c r="Q57">
+        <v>0.02895854503205702</v>
+      </c>
+      <c r="R57">
+        <v>0.3295237691449924</v>
+      </c>
+      <c r="S57">
+        <v>0.221581354995056</v>
+      </c>
+      <c r="T57">
+        <v>0.5876956283495082</v>
+      </c>
+      <c r="U57">
+        <v>0.9774168899520832</v>
+      </c>
+      <c r="V57">
+        <v>0.1080039926910699</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57">
+        <v>0.001682699999975057</v>
+      </c>
+      <c r="Y57">
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.02394664341209421</v>
+      </c>
+      <c r="F58">
+        <v>9.866056085066207</v>
+      </c>
+      <c r="G58">
+        <v>177.5252172388728</v>
+      </c>
+      <c r="H58">
+        <v>6.87120936125805</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="N58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="O58">
+        <v>122.8437506992805</v>
+      </c>
+      <c r="P58">
+        <v>1.821827819474182</v>
+      </c>
+      <c r="Q58">
+        <v>0.01058023553623714</v>
+      </c>
+      <c r="R58">
+        <v>0.1245513585661092</v>
+      </c>
+      <c r="S58">
+        <v>0.03955551041220712</v>
+      </c>
+      <c r="T58">
+        <v>0.1206988263470141</v>
+      </c>
+      <c r="U58">
+        <v>0.9571206742630465</v>
+      </c>
+      <c r="V58">
+        <v>0.2201956254621565</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58">
+        <v>0.004806299999984276</v>
+      </c>
+      <c r="Y58">
+        <v>25</v>
+      </c>
+      <c r="Z58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>359.9093345778684</v>
+      </c>
+      <c r="F59">
+        <v>9.648004409739363</v>
+      </c>
+      <c r="G59">
+        <v>14.88521684940997</v>
+      </c>
+      <c r="H59">
+        <v>6.352321016971268</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>90</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="N59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="O59">
+        <v>12.20100419202568</v>
+      </c>
+      <c r="P59">
+        <v>14.73136182574495</v>
+      </c>
+      <c r="Q59">
+        <v>0.02233264576791531</v>
+      </c>
+      <c r="R59">
+        <v>0.2237575256191191</v>
+      </c>
+      <c r="S59">
+        <v>0.1016662935346164</v>
+      </c>
+      <c r="T59">
+        <v>0.3644084139466952</v>
+      </c>
+      <c r="U59">
+        <v>1.090899475066526</v>
+      </c>
+      <c r="V59">
+        <v>0.3257440343955576</v>
+      </c>
+      <c r="W59" t="s">
+        <v>29</v>
+      </c>
+      <c r="X59">
+        <v>0.001737500000018599</v>
+      </c>
+      <c r="Y59">
+        <v>8</v>
+      </c>
+      <c r="Z59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.001129170899292937</v>
+      </c>
+      <c r="F60">
+        <v>9.456510025279021</v>
+      </c>
+      <c r="G60">
+        <v>64.21070361038707</v>
+      </c>
+      <c r="H60">
+        <v>7.986063793396365</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>90</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="N60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="O60">
+        <v>41.67195747800169</v>
+      </c>
+      <c r="P60">
+        <v>14.73897050264203</v>
+      </c>
+      <c r="Q60">
+        <v>0.02513069705263006</v>
+      </c>
+      <c r="R60">
+        <v>0.2069015820820365</v>
+      </c>
+      <c r="S60">
+        <v>0.2711523332287292</v>
+      </c>
+      <c r="T60">
+        <v>0.1379512896609831</v>
+      </c>
+      <c r="U60">
+        <v>0.9402471143053249</v>
+      </c>
+      <c r="V60">
+        <v>0.3219164885387089</v>
+      </c>
+      <c r="W60" t="s">
+        <v>28</v>
+      </c>
+      <c r="X60">
+        <v>0.001842199999998684</v>
+      </c>
+      <c r="Y60">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.09727695176217106</v>
+      </c>
+      <c r="F61">
+        <v>9.845115803498263</v>
+      </c>
+      <c r="G61">
+        <v>167.344325872082</v>
+      </c>
+      <c r="H61">
+        <v>4.791439574971887</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>90</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="N61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="O61">
+        <v>56.51388969259644</v>
+      </c>
+      <c r="P61">
+        <v>2.933846232332346</v>
+      </c>
+      <c r="Q61">
+        <v>0.01996988662079011</v>
+      </c>
+      <c r="R61">
+        <v>0.1099902206008275</v>
+      </c>
+      <c r="S61">
+        <v>0.08981798202649387</v>
+      </c>
+      <c r="T61">
+        <v>0.05743444892478063</v>
+      </c>
+      <c r="U61">
+        <v>1.003988050894997</v>
+      </c>
+      <c r="V61">
+        <v>0.2089601969603954</v>
+      </c>
+      <c r="W61" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>0.004008400000003576</v>
+      </c>
+      <c r="Y61">
+        <v>20</v>
+      </c>
+      <c r="Z61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>359.874119261655</v>
+      </c>
+      <c r="F62">
+        <v>10.26096324296388</v>
+      </c>
+      <c r="G62">
+        <v>54.79641752189318</v>
+      </c>
+      <c r="H62">
+        <v>5.523374887835156</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>90</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="N62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="O62">
+        <v>29.79011707133656</v>
+      </c>
+      <c r="P62">
+        <v>13.21140912157862</v>
+      </c>
+      <c r="Q62">
+        <v>0.02547439670276894</v>
+      </c>
+      <c r="R62">
+        <v>0.1835331180451037</v>
+      </c>
+      <c r="S62">
+        <v>0.1786467064349096</v>
+      </c>
+      <c r="T62">
+        <v>0.1828488503210169</v>
+      </c>
+      <c r="U62">
+        <v>1.071383963094739</v>
+      </c>
+      <c r="V62">
+        <v>0.277493931400921</v>
+      </c>
+      <c r="W62" t="s">
+        <v>28</v>
+      </c>
+      <c r="X62">
+        <v>0.001655099999993581</v>
+      </c>
+      <c r="Y62">
+        <v>8</v>
+      </c>
+      <c r="Z62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.0578533912408765</v>
+      </c>
+      <c r="F63">
+        <v>10.13457132775451</v>
+      </c>
+      <c r="G63">
+        <v>148.2999528080433</v>
+      </c>
+      <c r="H63">
+        <v>5.291093501465416</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="N63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="O63">
+        <v>64.89804085059779</v>
+      </c>
+      <c r="P63">
+        <v>4.988188347418924</v>
+      </c>
+      <c r="Q63">
+        <v>0.02283258754913259</v>
+      </c>
+      <c r="R63">
+        <v>0.1818659349829882</v>
+      </c>
+      <c r="S63">
+        <v>0.152992096759371</v>
+      </c>
+      <c r="T63">
+        <v>0.1003283447592708</v>
+      </c>
+      <c r="U63">
+        <v>1.031221966971242</v>
+      </c>
+      <c r="V63">
+        <v>0.1430458252600256</v>
+      </c>
+      <c r="W63" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63">
+        <v>0.003797399999996287</v>
+      </c>
+      <c r="Y63">
+        <v>21</v>
+      </c>
+      <c r="Z63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.08941688874658096</v>
+      </c>
+      <c r="F64">
+        <v>10.46006011617879</v>
+      </c>
+      <c r="G64">
+        <v>6.342703855853018</v>
+      </c>
+      <c r="H64">
+        <v>8.449185509926066</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>90</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="N64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="O64">
+        <v>7.335228448667669</v>
+      </c>
+      <c r="P64">
+        <v>18.06851586034805</v>
+      </c>
+      <c r="Q64">
+        <v>0.02404436686739049</v>
+      </c>
+      <c r="R64">
+        <v>0.3614596635777976</v>
+      </c>
+      <c r="S64">
+        <v>0.09846000893845068</v>
+      </c>
+      <c r="T64">
+        <v>0.5996672804321055</v>
+      </c>
+      <c r="U64">
+        <v>0.8937877817879886</v>
+      </c>
+      <c r="V64">
+        <v>0.1416546964952025</v>
+      </c>
+      <c r="W64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64">
+        <v>0.00147849999999039</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>359.9381776187826</v>
+      </c>
+      <c r="F65">
+        <v>10.1866294852206</v>
+      </c>
+      <c r="G65">
+        <v>99.94441675607479</v>
+      </c>
+      <c r="H65">
+        <v>7.939974961783223</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>25</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="N65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="O65">
+        <v>60.66829386736778</v>
+      </c>
+      <c r="P65">
+        <v>12.09486386580781</v>
+      </c>
+      <c r="Q65">
+        <v>0.02643224302988711</v>
+      </c>
+      <c r="R65">
+        <v>0.2746018747572901</v>
+      </c>
+      <c r="S65">
+        <v>0.3467487257865071</v>
+      </c>
+      <c r="T65">
+        <v>0.08821028235827826</v>
+      </c>
+      <c r="U65">
+        <v>0.9593140232607007</v>
+      </c>
+      <c r="V65">
+        <v>0.1002467079908932</v>
+      </c>
+      <c r="W65" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65">
+        <v>0.003337100000010196</v>
+      </c>
+      <c r="Y65">
+        <v>18</v>
+      </c>
+      <c r="Z65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>0.2639897487690009</v>
+      </c>
+      <c r="F66">
+        <v>10.03109150351018</v>
+      </c>
+      <c r="G66">
+        <v>68.49952612729111</v>
+      </c>
+      <c r="H66">
+        <v>9.685152917275829</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>90</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="N66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="O66">
+        <v>45.8600935292367</v>
+      </c>
+      <c r="P66">
+        <v>16.76341454236098</v>
+      </c>
+      <c r="Q66">
+        <v>0.02700401575535192</v>
+      </c>
+      <c r="R66">
+        <v>0.2623907320423907</v>
+      </c>
+      <c r="S66">
+        <v>0.3687838145073452</v>
+      </c>
+      <c r="T66">
+        <v>0.141455146699041</v>
+      </c>
+      <c r="U66">
+        <v>1.079827371007452</v>
+      </c>
+      <c r="V66">
+        <v>0.05045592582347644</v>
+      </c>
+      <c r="W66" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66">
+        <v>0.001831299999992098</v>
+      </c>
+      <c r="Y66">
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.1354374492836424</v>
+      </c>
+      <c r="F67">
+        <v>9.961625739928511</v>
+      </c>
+      <c r="G67">
+        <v>38.63449963891129</v>
+      </c>
+      <c r="H67">
+        <v>3.369183000469292</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>90</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="N67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="O67">
+        <v>19.49421056951316</v>
+      </c>
+      <c r="P67">
+        <v>11.14213939193633</v>
+      </c>
+      <c r="Q67">
+        <v>0.02250066196589135</v>
+      </c>
+      <c r="R67">
+        <v>0.1582428255481378</v>
+      </c>
+      <c r="S67">
+        <v>0.1053779888564221</v>
+      </c>
+      <c r="T67">
+        <v>0.2239355189600986</v>
+      </c>
+      <c r="U67">
+        <v>0.9922290320423973</v>
+      </c>
+      <c r="V67">
+        <v>0.04735421499784705</v>
+      </c>
+      <c r="W67" t="s">
+        <v>26</v>
+      </c>
+      <c r="X67">
+        <v>0.001699999999999591</v>
+      </c>
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.9153971614213</v>
+      </c>
+      <c r="F68">
+        <v>9.875972318221448</v>
+      </c>
+      <c r="G68">
+        <v>27.71009318580181</v>
+      </c>
+      <c r="H68">
+        <v>4.433805131726529</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+      <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="N68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="O68">
+        <v>16.87007622774031</v>
+      </c>
+      <c r="P68">
+        <v>12.50824764055539</v>
+      </c>
+      <c r="Q68">
+        <v>0.02259213865305865</v>
+      </c>
+      <c r="R68">
+        <v>0.1773451502683299</v>
+      </c>
+      <c r="S68">
+        <v>0.1068466306207015</v>
+      </c>
+      <c r="T68">
+        <v>0.2668227127409836</v>
+      </c>
+      <c r="U68">
+        <v>0.9813216506294646</v>
+      </c>
+      <c r="V68">
+        <v>0.1609978449162515</v>
+      </c>
+      <c r="W68" t="s">
+        <v>26</v>
+      </c>
+      <c r="X68">
+        <v>0.001753099999973529</v>
+      </c>
+      <c r="Y68">
+        <v>8</v>
+      </c>
+      <c r="Z68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>0.2733281015535335</v>
+      </c>
+      <c r="F69">
+        <v>9.530816074288211</v>
+      </c>
+      <c r="G69">
+        <v>97.95020146033431</v>
+      </c>
+      <c r="H69">
+        <v>12.43040787474623</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="N69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="O69">
+        <v>73.12176022205711</v>
+      </c>
+      <c r="P69">
+        <v>16.70879170560868</v>
+      </c>
+      <c r="Q69">
+        <v>0.02648758417343571</v>
+      </c>
+      <c r="R69">
+        <v>0.4208964896328666</v>
+      </c>
+      <c r="S69">
+        <v>0.7302822385789003</v>
+      </c>
+      <c r="T69">
+        <v>0.1671417944436233</v>
+      </c>
+      <c r="U69">
+        <v>0.9761048375408307</v>
+      </c>
+      <c r="V69">
+        <v>0.312190804180166</v>
+      </c>
+      <c r="W69" t="s">
+        <v>28</v>
+      </c>
+      <c r="X69">
+        <v>0.003533199999992576</v>
+      </c>
+      <c r="Y69">
+        <v>19</v>
+      </c>
+      <c r="Z69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>359.9142919236386</v>
+      </c>
+      <c r="F70">
+        <v>9.940236759663605</v>
+      </c>
+      <c r="G70">
+        <v>46.85075942156323</v>
+      </c>
+      <c r="H70">
+        <v>3.462734310319086</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>90</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="N70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="O70">
+        <v>22.38645430323822</v>
+      </c>
+      <c r="P70">
+        <v>10.99423248064089</v>
+      </c>
+      <c r="Q70">
+        <v>0.02268758569261536</v>
+      </c>
+      <c r="R70">
+        <v>0.1515671068628115</v>
+      </c>
+      <c r="S70">
+        <v>0.1145669619591307</v>
+      </c>
+      <c r="T70">
+        <v>0.198198871373056</v>
+      </c>
+      <c r="U70">
+        <v>1.00636080059824</v>
+      </c>
+      <c r="V70">
+        <v>0.0753823816762588</v>
+      </c>
+      <c r="W70" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70">
+        <v>0.001792499999993424</v>
+      </c>
+      <c r="Y70">
+        <v>8</v>
+      </c>
+      <c r="Z70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>0.218745893850771</v>
+      </c>
+      <c r="F71">
+        <v>9.414143577739257</v>
+      </c>
+      <c r="G71">
+        <v>52.56857580612285</v>
+      </c>
+      <c r="H71">
+        <v>11.7390477923793</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>90</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="N71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="O71">
+        <v>38.89696726281969</v>
+      </c>
+      <c r="P71">
+        <v>19.73574676965048</v>
+      </c>
+      <c r="Q71">
+        <v>0.02686874458499615</v>
+      </c>
+      <c r="R71">
+        <v>0.2525110680985527</v>
+      </c>
+      <c r="S71">
+        <v>0.3746240057884995</v>
+      </c>
+      <c r="T71">
+        <v>0.2376646509234902</v>
+      </c>
+      <c r="U71">
+        <v>1.045565302537824</v>
+      </c>
+      <c r="V71">
+        <v>0.3787007998969554</v>
+      </c>
+      <c r="W71" t="s">
+        <v>28</v>
+      </c>
+      <c r="X71">
+        <v>0.001835499999998547</v>
+      </c>
+      <c r="Y71">
+        <v>9</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.9743559587224</v>
+      </c>
+      <c r="F72">
+        <v>10.07114725845707</v>
+      </c>
+      <c r="G72">
+        <v>166.8283970623088</v>
+      </c>
+      <c r="H72">
+        <v>13.59356721065265</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>90</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="N72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="O72">
+        <v>149.9139777489724</v>
+      </c>
+      <c r="P72">
+        <v>9.740677800989612</v>
+      </c>
+      <c r="Q72">
+        <v>0.01113597800404276</v>
+      </c>
+      <c r="R72">
+        <v>0.1262120232433624</v>
+      </c>
+      <c r="S72">
+        <v>0.07067344474207138</v>
+      </c>
+      <c r="T72">
+        <v>0.1968492417810031</v>
+      </c>
+      <c r="U72">
+        <v>1.012469023350545</v>
+      </c>
+      <c r="V72">
+        <v>0.07132741027331063</v>
+      </c>
+      <c r="W72" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72">
+        <v>0.004520900000017036</v>
+      </c>
+      <c r="Y72">
+        <v>26</v>
+      </c>
+      <c r="Z72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.06583751541804381</v>
+      </c>
+      <c r="F73">
+        <v>10.1559195833693</v>
+      </c>
+      <c r="G73">
+        <v>34.08344745971306</v>
+      </c>
+      <c r="H73">
+        <v>7.411749651155408</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73">
+        <v>90</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="N73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="O73">
+        <v>22.47431703688257</v>
+      </c>
+      <c r="P73">
+        <v>16.13097336028283</v>
+      </c>
+      <c r="Q73">
+        <v>0.02610957638153305</v>
+      </c>
+      <c r="R73">
+        <v>0.2086470561900488</v>
+      </c>
+      <c r="S73">
+        <v>0.1771216313159149</v>
+      </c>
+      <c r="T73">
+        <v>0.2813864789350406</v>
+      </c>
+      <c r="U73">
+        <v>0.979187812692115</v>
+      </c>
+      <c r="V73">
+        <v>0.1083681139017002</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73">
+        <v>0.001742199999995364</v>
+      </c>
+      <c r="Y73">
+        <v>8</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9264126650323</v>
+      </c>
+      <c r="F74">
+        <v>9.921781761870792</v>
+      </c>
+      <c r="G74">
+        <v>19.10501296107305</v>
+      </c>
+      <c r="H74">
+        <v>11.46619773342706</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="N74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="O74">
+        <v>15.57741310411316</v>
+      </c>
+      <c r="P74">
+        <v>21.08133124693809</v>
+      </c>
+      <c r="Q74">
+        <v>0.02696435807326684</v>
+      </c>
+      <c r="R74">
+        <v>0.2726739839399409</v>
+      </c>
+      <c r="S74">
+        <v>0.1825500742185529</v>
+      </c>
+      <c r="T74">
+        <v>0.4569121838547551</v>
+      </c>
+      <c r="U74">
+        <v>1.009258749052792</v>
+      </c>
+      <c r="V74">
+        <v>0.07902336836209271</v>
+      </c>
+      <c r="W74" t="s">
+        <v>26</v>
+      </c>
+      <c r="X74">
+        <v>0.001633099999992282</v>
+      </c>
+      <c r="Y74">
+        <v>8</v>
+      </c>
+      <c r="Z74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.8787062487542</v>
+      </c>
+      <c r="F75">
+        <v>10.58087093429206</v>
+      </c>
+      <c r="G75">
+        <v>115.7770312577448</v>
+      </c>
+      <c r="H75">
+        <v>10.28247289168842</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>25</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="N75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="O75">
+        <v>78.0319291966823</v>
+      </c>
+      <c r="P75">
+        <v>12.5316063419605</v>
+      </c>
+      <c r="Q75">
+        <v>0.0295067869825109</v>
+      </c>
+      <c r="R75">
+        <v>0.4468093080179098</v>
+      </c>
+      <c r="S75">
+        <v>0.5693150506674162</v>
+      </c>
+      <c r="T75">
+        <v>0.2755582788588883</v>
+      </c>
+      <c r="U75">
+        <v>0.9104769849888348</v>
+      </c>
+      <c r="V75">
+        <v>0.3953577576104911</v>
+      </c>
+      <c r="W75" t="s">
+        <v>28</v>
+      </c>
+      <c r="X75">
+        <v>0.003927500000003192</v>
+      </c>
+      <c r="Y75">
+        <v>22</v>
+      </c>
+      <c r="Z75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.9071534008937</v>
+      </c>
+      <c r="F76">
+        <v>9.980256235907998</v>
+      </c>
+      <c r="G76">
+        <v>36.42962122414807</v>
+      </c>
+      <c r="H76">
+        <v>12.33723167694564</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>90</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="N76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="O76">
+        <v>27.29289473477808</v>
+      </c>
+      <c r="P76">
+        <v>21.69021305695591</v>
+      </c>
+      <c r="Q76">
+        <v>0.02868233948766781</v>
+      </c>
+      <c r="R76">
+        <v>0.2643027269776371</v>
+      </c>
+      <c r="S76">
+        <v>0.3043913119375567</v>
+      </c>
+      <c r="T76">
+        <v>0.3542801680656918</v>
+      </c>
+      <c r="U76">
+        <v>0.9106070517581115</v>
+      </c>
+      <c r="V76">
+        <v>0.03299023482909252</v>
+      </c>
+      <c r="W76" t="s">
+        <v>26</v>
+      </c>
+      <c r="X76">
+        <v>0.001905499999992344</v>
+      </c>
+      <c r="Y76">
+        <v>9</v>
+      </c>
+      <c r="Z76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>359.8111615657005</v>
+      </c>
+      <c r="F77">
+        <v>10.2596269051205</v>
+      </c>
+      <c r="G77">
+        <v>102.0341354439765</v>
+      </c>
+      <c r="H77">
+        <v>4.034228923439646</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>25</v>
+      </c>
+      <c r="K77">
+        <v>90</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="N77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="O77">
+        <v>41.51051728909083</v>
+      </c>
+      <c r="P77">
+        <v>8.858934031607514</v>
+      </c>
+      <c r="Q77">
+        <v>0.02385207054904276</v>
+      </c>
+      <c r="R77">
+        <v>0.1571498432109271</v>
+      </c>
+      <c r="S77">
+        <v>0.1569253966852484</v>
+      </c>
+      <c r="T77">
+        <v>0.08782592308080453</v>
+      </c>
+      <c r="U77">
+        <v>0.9588773606947627</v>
+      </c>
+      <c r="V77">
+        <v>0.3060330160909446</v>
+      </c>
+      <c r="W77" t="s">
+        <v>28</v>
+      </c>
+      <c r="X77">
+        <v>0.002098799999998846</v>
+      </c>
+      <c r="Y77">
+        <v>11</v>
+      </c>
+      <c r="Z77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.9196831125823</v>
+      </c>
+      <c r="F78">
+        <v>10.03211238695551</v>
+      </c>
+      <c r="G78">
+        <v>56.23618654254935</v>
+      </c>
+      <c r="H78">
+        <v>12.88066399603571</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>25</v>
+      </c>
+      <c r="K78">
+        <v>90</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="N78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="O78">
+        <v>41.18749573933476</v>
+      </c>
+      <c r="P78">
+        <v>21.26900620029744</v>
+      </c>
+      <c r="Q78">
+        <v>0.0292263390419369</v>
+      </c>
+      <c r="R78">
+        <v>0.297470917538936</v>
+      </c>
+      <c r="S78">
+        <v>0.4562022654073107</v>
+      </c>
+      <c r="T78">
+        <v>0.25163510926142</v>
+      </c>
+      <c r="U78">
+        <v>0.9535958524653962</v>
+      </c>
+      <c r="V78">
+        <v>0.06185401121686901</v>
+      </c>
+      <c r="W78" t="s">
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>0.0017804999999953</v>
+      </c>
+      <c r="Y78">
+        <v>9</v>
+      </c>
+      <c r="Z78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>0.02468871442681446</v>
+      </c>
+      <c r="F79">
+        <v>9.805781310902862</v>
+      </c>
+      <c r="G79">
+        <v>165.5604769933583</v>
+      </c>
+      <c r="H79">
+        <v>10.44200914505154</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79">
+        <v>90</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="N79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="O79">
+        <v>138.9969483310217</v>
+      </c>
+      <c r="P79">
+        <v>6.552724123010545</v>
+      </c>
+      <c r="Q79">
+        <v>0.01129913701978305</v>
+      </c>
+      <c r="R79">
+        <v>0.1565670697839592</v>
+      </c>
+      <c r="S79">
+        <v>0.0786409166805231</v>
+      </c>
+      <c r="T79">
+        <v>0.2035546335778782</v>
+      </c>
+      <c r="U79">
+        <v>0.9957079989153158</v>
+      </c>
+      <c r="V79">
+        <v>0.1153803483053666</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79">
+        <v>0.004370499999993172</v>
+      </c>
+      <c r="Y79">
+        <v>24</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.88023339008</v>
+      </c>
+      <c r="F80">
+        <v>10.44841401148349</v>
+      </c>
+      <c r="G80">
+        <v>9.443602358999758</v>
+      </c>
+      <c r="H80">
+        <v>11.02037924266021</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="N80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="O80">
+        <v>9.031603178705266</v>
+      </c>
+      <c r="P80">
+        <v>21.13934814469809</v>
+      </c>
+      <c r="Q80">
+        <v>0.02598470017800057</v>
+      </c>
+      <c r="R80">
+        <v>0.3600205606466095</v>
+      </c>
+      <c r="S80">
+        <v>0.1302938889791939</v>
+      </c>
+      <c r="T80">
+        <v>0.6197581037404124</v>
+      </c>
+      <c r="U80">
+        <v>1.00415152046722</v>
+      </c>
+      <c r="V80">
+        <v>0.1334424240892638</v>
+      </c>
+      <c r="W80" t="s">
+        <v>26</v>
+      </c>
+      <c r="X80">
+        <v>0.001608600000025717</v>
+      </c>
+      <c r="Y80">
+        <v>8</v>
+      </c>
+      <c r="Z80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>359.7194161101818</v>
+      </c>
+      <c r="F81">
+        <v>10.09291250530644</v>
+      </c>
+      <c r="G81">
+        <v>89.32478707337185</v>
+      </c>
+      <c r="H81">
+        <v>8.944261379548989</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <v>90</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="N81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="O81">
+        <v>57.32339467250641</v>
+      </c>
+      <c r="P81">
+        <v>14.08216208193892</v>
+      </c>
+      <c r="Q81">
+        <v>0.02749565729747095</v>
+      </c>
+      <c r="R81">
+        <v>0.2817639572392523</v>
+      </c>
+      <c r="S81">
+        <v>0.3889999915969907</v>
+      </c>
+      <c r="T81">
+        <v>0.07499362039557975</v>
+      </c>
+      <c r="U81">
+        <v>0.9443429155455677</v>
+      </c>
+      <c r="V81">
+        <v>0.184579894932886</v>
+      </c>
+      <c r="W81" t="s">
+        <v>26</v>
+      </c>
+      <c r="X81">
+        <v>0.003268499999990127</v>
+      </c>
+      <c r="Y81">
+        <v>15</v>
+      </c>
+      <c r="Z81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.9210231527381</v>
+      </c>
+      <c r="F82">
+        <v>10.31165744775156</v>
+      </c>
+      <c r="G82">
+        <v>94.68262994597889</v>
+      </c>
+      <c r="H82">
+        <v>11.75026858105563</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>90</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="N82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="O82">
+        <v>66.71925565798504</v>
+      </c>
+      <c r="P82">
+        <v>16.55763320957922</v>
+      </c>
+      <c r="Q82">
+        <v>0.02917586364545594</v>
+      </c>
+      <c r="R82">
+        <v>0.397911823840864</v>
+      </c>
+      <c r="S82">
+        <v>0.6255995039335636</v>
+      </c>
+      <c r="T82">
+        <v>0.1153853097021168</v>
+      </c>
+      <c r="U82">
+        <v>0.954151078389609</v>
+      </c>
+      <c r="V82">
+        <v>0.196749203534477</v>
+      </c>
+      <c r="W82" t="s">
+        <v>26</v>
+      </c>
+      <c r="X82">
+        <v>0.003708500000016102</v>
+      </c>
+      <c r="Y82">
+        <v>19</v>
+      </c>
+      <c r="Z82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.230060668632509</v>
+      </c>
+      <c r="F83">
+        <v>10.33646856604644</v>
+      </c>
+      <c r="G83">
+        <v>65.80460237687343</v>
+      </c>
+      <c r="H83">
+        <v>7.082462901737051</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>25</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="N83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="O83">
+        <v>38.66496007270955</v>
+      </c>
+      <c r="P83">
+        <v>14.34827915440629</v>
+      </c>
+      <c r="Q83">
+        <v>0.0264685580394519</v>
+      </c>
+      <c r="R83">
+        <v>0.2178174080939479</v>
+      </c>
+      <c r="S83">
+        <v>0.2524543338467714</v>
+      </c>
+      <c r="T83">
+        <v>0.1491324834839237</v>
+      </c>
+      <c r="U83">
+        <v>1.011443856437761</v>
+      </c>
+      <c r="V83">
+        <v>0.129530324364285</v>
+      </c>
+      <c r="W83" t="s">
+        <v>26</v>
+      </c>
+      <c r="X83">
+        <v>0.001899999999977808</v>
+      </c>
+      <c r="Y83">
+        <v>9</v>
+      </c>
+      <c r="Z83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.8263154925136</v>
+      </c>
+      <c r="F84">
+        <v>9.922967086653522</v>
+      </c>
+      <c r="G84">
+        <v>49.03133434869294</v>
+      </c>
+      <c r="H84">
+        <v>10.93376667655677</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="N84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="O84">
+        <v>34.7762784358791</v>
+      </c>
+      <c r="P84">
+        <v>19.36846878521098</v>
+      </c>
+      <c r="Q84">
+        <v>0.02806707136302998</v>
+      </c>
+      <c r="R84">
+        <v>0.2520896394741131</v>
+      </c>
+      <c r="S84">
+        <v>0.3299928446497825</v>
+      </c>
+      <c r="T84">
+        <v>0.2525061934861211</v>
+      </c>
+      <c r="U84">
+        <v>1.077947668607049</v>
+      </c>
+      <c r="V84">
+        <v>0.1063960236449773</v>
+      </c>
+      <c r="W84" t="s">
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>0.002097500000019181</v>
+      </c>
+      <c r="Y84">
+        <v>9</v>
+      </c>
+      <c r="Z84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>0.02106547545272138</v>
+      </c>
+      <c r="F85">
+        <v>9.756230783654148</v>
+      </c>
+      <c r="G85">
+        <v>45.91990117108727</v>
+      </c>
+      <c r="H85">
+        <v>10.85471285072651</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+      <c r="K85">
+        <v>90</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="N85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="O85">
+        <v>33.02482449424655</v>
+      </c>
+      <c r="P85">
+        <v>19.3233199162795</v>
+      </c>
+      <c r="Q85">
+        <v>0.02744491821689271</v>
+      </c>
+      <c r="R85">
+        <v>0.2429282351125841</v>
+      </c>
+      <c r="S85">
+        <v>0.3097594031928952</v>
+      </c>
+      <c r="T85">
+        <v>0.2633259893579219</v>
+      </c>
+      <c r="U85">
+        <v>0.9900046280073951</v>
+      </c>
+      <c r="V85">
+        <v>0.1636851199313475</v>
+      </c>
+      <c r="W85" t="s">
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <v>0.001830000000012433</v>
+      </c>
+      <c r="Y85">
+        <v>9</v>
+      </c>
+      <c r="Z85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.2927070725219252</v>
+      </c>
+      <c r="F86">
+        <v>10.17065564692755</v>
+      </c>
+      <c r="G86">
+        <v>7.855044915613862</v>
+      </c>
+      <c r="H86">
+        <v>7.401101740527602</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <v>90</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="N86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="O86">
+        <v>8.47379417044502</v>
+      </c>
+      <c r="P86">
+        <v>16.53262977619813</v>
+      </c>
+      <c r="Q86">
+        <v>0.02372619939620435</v>
+      </c>
+      <c r="R86">
+        <v>0.3112798826855835</v>
+      </c>
+      <c r="S86">
+        <v>0.09595924742081076</v>
+      </c>
+      <c r="T86">
+        <v>0.5129910215673573</v>
+      </c>
+      <c r="U86">
+        <v>1.117391914837499</v>
+      </c>
+      <c r="V86">
+        <v>0.07304616091571511</v>
+      </c>
+      <c r="W86" t="s">
+        <v>26</v>
+      </c>
+      <c r="X86">
+        <v>0.001454099999989467</v>
+      </c>
+      <c r="Y86">
+        <v>7</v>
+      </c>
+      <c r="Z86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>0.01509275487225677</v>
+      </c>
+      <c r="F87">
+        <v>10.17259177186448</v>
+      </c>
+      <c r="G87">
+        <v>111.5654713530741</v>
+      </c>
+      <c r="H87">
+        <v>9.349242922305333</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="N87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="O87">
+        <v>73.52549931017271</v>
+      </c>
+      <c r="P87">
+        <v>12.1037762433504</v>
+      </c>
+      <c r="Q87">
+        <v>0.02719404138110743</v>
+      </c>
+      <c r="R87">
+        <v>0.3695547183108956</v>
+      </c>
+      <c r="S87">
+        <v>0.4768618744037516</v>
+      </c>
+      <c r="T87">
+        <v>0.1946705512195257</v>
+      </c>
+      <c r="U87">
+        <v>1.020380768674572</v>
+      </c>
+      <c r="V87">
+        <v>0.1116142307217514</v>
+      </c>
+      <c r="W87" t="s">
+        <v>26</v>
+      </c>
+      <c r="X87">
+        <v>0.004453399999988505</v>
+      </c>
+      <c r="Y87">
+        <v>22</v>
+      </c>
+      <c r="Z87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>359.9755510745816</v>
+      </c>
+      <c r="F88">
+        <v>10.0260655807145</v>
+      </c>
+      <c r="G88">
+        <v>37.29541727537195</v>
+      </c>
+      <c r="H88">
+        <v>5.303041395183086</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88">
+        <v>90</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="N88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="O88">
+        <v>21.93284382256817</v>
+      </c>
+      <c r="P88">
+        <v>13.44526244341014</v>
+      </c>
+      <c r="Q88">
+        <v>0.02430600294552842</v>
+      </c>
+      <c r="R88">
+        <v>0.1784858808554369</v>
+      </c>
+      <c r="S88">
+        <v>0.1402972295654868</v>
+      </c>
+      <c r="T88">
+        <v>0.2390375157910666</v>
+      </c>
+      <c r="U88">
+        <v>1.01327748854551</v>
+      </c>
+      <c r="V88">
+        <v>0.1506734093554445</v>
+      </c>
+      <c r="W88" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>0.001625700000005281</v>
+      </c>
+      <c r="Y88">
+        <v>8</v>
+      </c>
+      <c r="Z88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>0.2161805841173744</v>
+      </c>
+      <c r="F89">
+        <v>9.014528426453101</v>
+      </c>
+      <c r="G89">
+        <v>117.9547554981788</v>
+      </c>
+      <c r="H89">
+        <v>12.588449041457</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+      <c r="K89">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="N89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="O89">
+        <v>92.68899785777826</v>
+      </c>
+      <c r="P89">
+        <v>14.56402788893456</v>
+      </c>
+      <c r="Q89">
+        <v>0.0236942890898878</v>
+      </c>
+      <c r="R89">
+        <v>0.4772470487037242</v>
+      </c>
+      <c r="S89">
+        <v>0.7794985051145606</v>
+      </c>
+      <c r="T89">
+        <v>0.4421462933609825</v>
+      </c>
+      <c r="U89">
+        <v>1.004019612347618</v>
+      </c>
+      <c r="V89">
+        <v>0.5419357124394211</v>
+      </c>
+      <c r="W89" t="s">
+        <v>29</v>
+      </c>
+      <c r="X89">
+        <v>0.003944999999987431</v>
+      </c>
+      <c r="Y89">
+        <v>22</v>
+      </c>
+      <c r="Z89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9540052781402</v>
+      </c>
+      <c r="F90">
+        <v>10.53064638350994</v>
+      </c>
+      <c r="G90">
+        <v>116.5856685834612</v>
+      </c>
+      <c r="H90">
+        <v>9.771228130692137</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="N90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="O90">
+        <v>77.10449958616714</v>
+      </c>
+      <c r="P90">
+        <v>11.94906622952438</v>
+      </c>
+      <c r="Q90">
+        <v>0.02862244267056201</v>
+      </c>
+      <c r="R90">
+        <v>0.420983084305335</v>
+      </c>
+      <c r="S90">
+        <v>0.5209536526637274</v>
+      </c>
+      <c r="T90">
+        <v>0.2552599277182308</v>
+      </c>
+      <c r="U90">
+        <v>0.9962611604595814</v>
+      </c>
+      <c r="V90">
+        <v>0.3094497619083898</v>
+      </c>
+      <c r="W90" t="s">
+        <v>28</v>
+      </c>
+      <c r="X90">
+        <v>0.004221699999988004</v>
+      </c>
+      <c r="Y90">
+        <v>22</v>
+      </c>
+      <c r="Z90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.2181870231481209</v>
+      </c>
+      <c r="F91">
+        <v>10.01147994159322</v>
+      </c>
+      <c r="G91">
+        <v>90.83561990189071</v>
+      </c>
+      <c r="H91">
+        <v>5.933576285609787</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>25</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="N91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="O91">
+        <v>48.79808287622988</v>
+      </c>
+      <c r="P91">
+        <v>11.0688355175613</v>
+      </c>
+      <c r="Q91">
+        <v>0.02450280807179265</v>
+      </c>
+      <c r="R91">
+        <v>0.201190421087185</v>
+      </c>
+      <c r="S91">
+        <v>0.2329160436253721</v>
+      </c>
+      <c r="T91">
+        <v>0.07939277423946986</v>
+      </c>
+      <c r="U91">
+        <v>1.039593304283968</v>
+      </c>
+      <c r="V91">
+        <v>0.1149319272231725</v>
+      </c>
+      <c r="W91" t="s">
+        <v>26</v>
+      </c>
+      <c r="X91">
+        <v>0.002445999999991955</v>
+      </c>
+      <c r="Y91">
+        <v>12</v>
+      </c>
+      <c r="Z91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>359.9066775900369</v>
+      </c>
+      <c r="F92">
+        <v>9.722839743193338</v>
+      </c>
+      <c r="G92">
+        <v>26.18025224488233</v>
+      </c>
+      <c r="H92">
+        <v>5.089213100609226</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>25</v>
+      </c>
+      <c r="K92">
+        <v>90</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="N92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="O92">
+        <v>17.00332056640227</v>
+      </c>
+      <c r="P92">
+        <v>13.16235560825671</v>
+      </c>
+      <c r="Q92">
+        <v>0.02272208753115255</v>
+      </c>
+      <c r="R92">
+        <v>0.1808404096909521</v>
+      </c>
+      <c r="S92">
+        <v>0.1122735690692308</v>
+      </c>
+      <c r="T92">
+        <v>0.2740957976033988</v>
+      </c>
+      <c r="U92">
+        <v>1.071368787568111</v>
+      </c>
+      <c r="V92">
+        <v>0.174121389117037</v>
+      </c>
+      <c r="W92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X92">
+        <v>0.00165250000000583</v>
+      </c>
+      <c r="Y92">
+        <v>8</v>
+      </c>
+      <c r="Z92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>359.844472557379</v>
+      </c>
+      <c r="F93">
+        <v>9.835910906594771</v>
+      </c>
+      <c r="G93">
+        <v>36.03603343866624</v>
+      </c>
+      <c r="H93">
+        <v>6.886442199682396</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25</v>
+      </c>
+      <c r="K93">
+        <v>90</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="N93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="O93">
+        <v>23.36300070128722</v>
+      </c>
+      <c r="P93">
+        <v>15.14356167683689</v>
+      </c>
+      <c r="Q93">
+        <v>0.02500484922414284</v>
+      </c>
+      <c r="R93">
+        <v>0.1911224652044425</v>
+      </c>
+      <c r="S93">
+        <v>0.1669525135625006</v>
+      </c>
+      <c r="T93">
+        <v>0.2518919307147187</v>
+      </c>
+      <c r="U93">
+        <v>0.9406653536813948</v>
+      </c>
+      <c r="V93">
+        <v>0.0541971861689465</v>
+      </c>
+      <c r="W93" t="s">
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>0.001654999999999518</v>
+      </c>
+      <c r="Y93">
+        <v>8</v>
+      </c>
+      <c r="Z93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>0.04864898216115771</v>
+      </c>
+      <c r="F94">
+        <v>10.1672816026762</v>
+      </c>
+      <c r="G94">
+        <v>159.5372668306335</v>
+      </c>
+      <c r="H94">
+        <v>12.70313151518083</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="N94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="O94">
+        <v>135.9636180446047</v>
+      </c>
+      <c r="P94">
+        <v>9.362875684652824</v>
+      </c>
+      <c r="Q94">
+        <v>0.012698016343935</v>
+      </c>
+      <c r="R94">
+        <v>0.1816278548403492</v>
+      </c>
+      <c r="S94">
+        <v>0.1233682339939342</v>
+      </c>
+      <c r="T94">
+        <v>0.2587687130036812</v>
+      </c>
+      <c r="U94">
+        <v>0.8925523429960969</v>
+      </c>
+      <c r="V94">
+        <v>0.09379865219900244</v>
+      </c>
+      <c r="W94" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94">
+        <v>0.004446900000004916</v>
+      </c>
+      <c r="Y94">
+        <v>24</v>
+      </c>
+      <c r="Z94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.9112103075379</v>
+      </c>
+      <c r="F95">
+        <v>9.993237735839982</v>
+      </c>
+      <c r="G95">
+        <v>109.0668154994007</v>
+      </c>
+      <c r="H95">
+        <v>10.92160010975399</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>25</v>
+      </c>
+      <c r="K95">
+        <v>90</v>
+      </c>
+      <c r="L95">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="N95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="O95">
+        <v>77.1239550193088</v>
+      </c>
+      <c r="P95">
+        <v>13.89117589580032</v>
+      </c>
+      <c r="Q95">
+        <v>0.02839859660452861</v>
+      </c>
+      <c r="R95">
+        <v>0.4318210239484475</v>
+      </c>
+      <c r="S95">
+        <v>0.6264724151080889</v>
+      </c>
+      <c r="T95">
+        <v>0.2438666794957866</v>
+      </c>
+      <c r="U95">
+        <v>0.9017805917284276</v>
+      </c>
+      <c r="V95">
+        <v>0.02062746953553811</v>
+      </c>
+      <c r="W95" t="s">
+        <v>26</v>
+      </c>
+      <c r="X95">
+        <v>0.005340700000004972</v>
+      </c>
+      <c r="Y95">
+        <v>22</v>
+      </c>
+      <c r="Z95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.9887048213968</v>
+      </c>
+      <c r="F96">
+        <v>9.920433666906089</v>
+      </c>
+      <c r="G96">
+        <v>129.2801200046534</v>
+      </c>
+      <c r="H96">
+        <v>10.19720316967731</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>25</v>
+      </c>
+      <c r="K96">
+        <v>90</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="N96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="O96">
+        <v>92.38459678690049</v>
+      </c>
+      <c r="P96">
+        <v>10.64961610458314</v>
+      </c>
+      <c r="Q96">
+        <v>0.02694971594508345</v>
+      </c>
+      <c r="R96">
+        <v>0.5054640686907467</v>
+      </c>
+      <c r="S96">
+        <v>0.5870498224474757</v>
+      </c>
+      <c r="T96">
+        <v>0.4524336153892731</v>
+      </c>
+      <c r="U96">
+        <v>0.9974825809209588</v>
+      </c>
+      <c r="V96">
+        <v>0.06383606466342412</v>
+      </c>
+      <c r="W96" t="s">
+        <v>26</v>
+      </c>
+      <c r="X96">
+        <v>0.004648400000007769</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>359.9499164666342</v>
+      </c>
+      <c r="F97">
+        <v>9.993915526418267</v>
+      </c>
+      <c r="G97">
+        <v>40.95298802171767</v>
+      </c>
+      <c r="H97">
+        <v>5.366582768928133</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>25</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="N97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="O97">
+        <v>23.73586682036108</v>
+      </c>
+      <c r="P97">
+        <v>13.37243124343335</v>
+      </c>
+      <c r="Q97">
+        <v>0.02441478999356833</v>
+      </c>
+      <c r="R97">
+        <v>0.1760950921659775</v>
+      </c>
+      <c r="S97">
+        <v>0.1479501823831484</v>
+      </c>
+      <c r="T97">
+        <v>0.2234749046364261</v>
+      </c>
+      <c r="U97">
+        <v>0.94397536468334</v>
+      </c>
+      <c r="V97">
+        <v>0.0562915849477582</v>
+      </c>
+      <c r="W97" t="s">
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <v>0.002103699999992159</v>
+      </c>
+      <c r="Y97">
+        <v>8</v>
+      </c>
+      <c r="Z97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>0.2546941680328595</v>
+      </c>
+      <c r="F98">
+        <v>10.00611783418882</v>
+      </c>
+      <c r="G98">
+        <v>38.85493888771748</v>
+      </c>
+      <c r="H98">
+        <v>13.37986252450208</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>25</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="N98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="O98">
+        <v>29.57129252510385</v>
+      </c>
+      <c r="P98">
+        <v>22.87220666479914</v>
+      </c>
+      <c r="Q98">
+        <v>0.02920041223467901</v>
+      </c>
+      <c r="R98">
+        <v>0.2815047505702146</v>
+      </c>
+      <c r="S98">
+        <v>0.3545800736072541</v>
+      </c>
+      <c r="T98">
+        <v>0.369534998104273</v>
+      </c>
+      <c r="U98">
+        <v>0.9675864436758668</v>
+      </c>
+      <c r="V98">
+        <v>0.1491268546675907</v>
+      </c>
+      <c r="W98" t="s">
+        <v>26</v>
+      </c>
+      <c r="X98">
+        <v>0.001954699999998866</v>
+      </c>
+      <c r="Y98">
+        <v>9</v>
+      </c>
+      <c r="Z98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.0636102533979552</v>
+      </c>
+      <c r="F99">
+        <v>10.36444338496984</v>
+      </c>
+      <c r="G99">
+        <v>150.5339215361126</v>
+      </c>
+      <c r="H99">
+        <v>15.27574578933194</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="N99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="O99">
+        <v>128.8388632380291</v>
+      </c>
+      <c r="P99">
+        <v>13.09399278606961</v>
+      </c>
+      <c r="Q99">
+        <v>0.01500127502196236</v>
+      </c>
+      <c r="R99">
+        <v>0.2361939938331725</v>
+      </c>
+      <c r="S99">
+        <v>0.2340191870751266</v>
+      </c>
+      <c r="T99">
+        <v>0.3629033095502749</v>
+      </c>
+      <c r="U99">
+        <v>0.9790332786427518</v>
+      </c>
+      <c r="V99">
+        <v>0.2263427593660257</v>
+      </c>
+      <c r="W99" t="s">
+        <v>26</v>
+      </c>
+      <c r="X99">
+        <v>0.004504700000012463</v>
+      </c>
+      <c r="Y99">
+        <v>24</v>
+      </c>
+      <c r="Z99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>0.2204397853212823</v>
+      </c>
+      <c r="F100">
+        <v>9.551444655967225</v>
+      </c>
+      <c r="G100">
+        <v>132.2063056807814</v>
+      </c>
+      <c r="H100">
+        <v>9.139799163986892</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100">
+        <v>90</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="N100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="O100">
+        <v>92.6577044242312</v>
+      </c>
+      <c r="P100">
+        <v>9.34140555365755</v>
+      </c>
+      <c r="Q100">
+        <v>0.02441459269790146</v>
+      </c>
+      <c r="R100">
+        <v>0.4558280630704685</v>
+      </c>
+      <c r="S100">
+        <v>0.4971550455819402</v>
+      </c>
+      <c r="T100">
+        <v>0.4086144084301027</v>
+      </c>
+      <c r="U100">
+        <v>1.095393557010373</v>
+      </c>
+      <c r="V100">
+        <v>0.2828318481959696</v>
+      </c>
+      <c r="W100" t="s">
+        <v>28</v>
+      </c>
+      <c r="X100">
+        <v>0.004605699999984836</v>
+      </c>
+      <c r="Y100">
+        <v>26</v>
+      </c>
+      <c r="Z100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>359.9050154555556</v>
+      </c>
+      <c r="F101">
+        <v>10.15875321671137</v>
+      </c>
+      <c r="G101">
+        <v>120.9378687797005</v>
+      </c>
+      <c r="H101">
+        <v>9.075022806738014</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="N101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="O101">
+        <v>79.50672144673059</v>
+      </c>
+      <c r="P101">
+        <v>10.67275320441572</v>
+      </c>
+      <c r="Q101">
+        <v>0.0277452963979595</v>
+      </c>
+      <c r="R101">
+        <v>0.3972327144266566</v>
+      </c>
+      <c r="S101">
+        <v>0.4695787244330618</v>
+      </c>
+      <c r="T101">
+        <v>0.2635229958885455</v>
+      </c>
+      <c r="U101">
+        <v>0.9729419654097136</v>
+      </c>
+      <c r="V101">
+        <v>0.1034684266174247</v>
+      </c>
+      <c r="W101" t="s">
+        <v>26</v>
+      </c>
+      <c r="X101">
+        <v>0.003947299999992993</v>
+      </c>
+      <c r="Y101">
+        <v>22</v>
+      </c>
+      <c r="Z101">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
